--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_fMeHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_fMeHg Model Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\4_wy2016-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A527214-6AB1-4FBE-BD94-AE8EAED281D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA20BB7-B2AB-4CFC-8E31-4E09037AE913}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28995" yWindow="16335" windowWidth="15300" windowHeight="11385" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fMeHg wy2016-18 Model Results" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="447">
   <si>
     <t>Model #</t>
   </si>
@@ -210,33 +210,6 @@
     <t>Rumsey fMeHg</t>
   </si>
   <si>
-    <t>In loadReg(fMeHg ~ model(1), data = fMeHg_Rumsey, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(2), data = fMeHg_Rumsey, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(3), data = fMeHg_Rumsey, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(4), data = fMeHg_Rumsey, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(5), data = fMeHg_Rumsey, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(6), data = fMeHg_Rumsey, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(7), data = fMeHg_Rumsey, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(8), data = fMeHg_Rumsey, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(9), data = fMeHg_Rumsey, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
     <t>&gt; fMeHg_Outflowm1 &lt;- loadReg(fMeHg ~model(1), data = fMeHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -898,6 +871,546 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym1 &lt;- loadReg(fMeHg ~model(1), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(1), data = fMeHg_Rumsey, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym1</t>
+  </si>
+  <si>
+    <t>Station: CCSB-Rumsey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Number of Observations: 52</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2017.067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 6.651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Period of record: 2015-12-19 to 2018-05-11</t>
+  </si>
+  <si>
+    <t>(Intercept)  -9.2818    0.07198 -128.96       0</t>
+  </si>
+  <si>
+    <t>lnQ           0.9335    0.03845   24.28       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2684</t>
+  </si>
+  <si>
+    <t>R-squared: 92.18 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 132.5 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0435</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4197</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 15.05 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.7375</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym2 &lt;- loadReg(fMeHg ~model(2), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(2), data = fMeHg_Rumsey, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym2</t>
+  </si>
+  <si>
+    <t>(Intercept) -9.07948    0.09646 -94.126  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.93354    0.03584  26.045  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.05772    0.01977  -2.919  0.0039</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2333</t>
+  </si>
+  <si>
+    <t>R-squared: 93.34 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 140.9 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1534</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4308</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 0.3532 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8123</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym3 &lt;- loadReg(fMeHg ~model(3), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(3), data = fMeHg_Rumsey, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym3</t>
+  </si>
+  <si>
+    <t>(Intercept)  -9.2704    0.07171 -129.275  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.9421    0.03854   24.444  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME       0.1314    0.09273    1.417  0.1485</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2631</t>
+  </si>
+  <si>
+    <t>R-squared: 92.49 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 134.6 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.2904</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4012</t>
+  </si>
+  <si>
+    <t>lnQ     1.025</t>
+  </si>
+  <si>
+    <t>DECTIME 1.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 16.62 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.7036</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym4 &lt;- loadReg(fMeHg ~model(4), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(4), data = fMeHg_Rumsey, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym4</t>
+  </si>
+  <si>
+    <t>(Intercept)  -8.7205    0.23444 -37.197  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.9458    0.03611  26.195  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.2741    0.23186  -1.182  0.2218</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.6535    0.21757  -3.004  0.0028</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2275</t>
+  </si>
+  <si>
+    <t>R-squared: 93.64 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 143.3 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1509</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3466</t>
+  </si>
+  <si>
+    <t>lnQ         1.041</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 2.093</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 2.069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 7.754 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8192</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym5 &lt;- loadReg(fMeHg ~model(5), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(5), data = fMeHg_Rumsey, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym5</t>
+  </si>
+  <si>
+    <t>(Intercept) -9.03761    0.09518 -94.954  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.94546    0.03506  26.970  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.06515    0.01940  -3.358  0.0009</t>
+  </si>
+  <si>
+    <t>DECTIME      0.18299    0.08570   2.135  0.0298</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2175</t>
+  </si>
+  <si>
+    <t>R-squared: 93.92 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 145.6 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3215</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3672</t>
+  </si>
+  <si>
+    <t>lnQ     1.026</t>
+  </si>
+  <si>
+    <t>lnQ2    1.033</t>
+  </si>
+  <si>
+    <t>DECTIME 1.059</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 0.08685 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.805</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym6 &lt;- loadReg(fMeHg ~model(6), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(6), data = fMeHg_Rumsey, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym6</t>
+  </si>
+  <si>
+    <t>(Intercept) -8.73531    0.22791 -38.3271  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.94182    0.03514  26.8010  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.04008    0.02044  -1.9609  0.0432</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.16837    0.23164  -0.7269  0.4458</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.48937    0.22737  -2.1523  0.0270</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2148</t>
+  </si>
+  <si>
+    <t>R-squared: 94.12 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 147.3 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.2266</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3851</t>
+  </si>
+  <si>
+    <t>lnQ         1.044</t>
+  </si>
+  <si>
+    <t>lnQ2        1.161</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 2.213</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 2.394</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -0.3495 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.827</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym7 &lt;- loadReg(fMeHg ~model(7), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(7), data = fMeHg_Rumsey, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym7</t>
+  </si>
+  <si>
+    <t>(Intercept)  -8.7163    0.23514 -37.0679  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.9514    0.03679  25.8586  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME       0.0780    0.09093   0.8578  0.3688</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.3023    0.23480  -1.2874  0.1795</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.6343    0.21933  -2.8919  0.0035</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2287</t>
+  </si>
+  <si>
+    <t>R-squared: 93.74 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 144.1 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3246</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3365</t>
+  </si>
+  <si>
+    <t>lnQ         1.075</t>
+  </si>
+  <si>
+    <t>DECTIME     1.134</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 2.134</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 2.091</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 8.918 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8097</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym8 &lt;- loadReg(fMeHg ~model(8), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(8), data = fMeHg_Rumsey, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym8</t>
+  </si>
+  <si>
+    <t>(Intercept) -8.73109    0.22515 -38.7787  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.95057    0.03522  26.9916  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.04822    0.02093  -2.3035  0.0172</t>
+  </si>
+  <si>
+    <t>DECTIME      0.13288    0.09024   1.4726  0.1217</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.19483    0.22952  -0.8488  0.3687</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.42326    0.22904  -1.8480  0.0536</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2096</t>
+  </si>
+  <si>
+    <t>R-squared: 94.38 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 149.7 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.5763</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.353</t>
+  </si>
+  <si>
+    <t>lnQ2        1.248</t>
+  </si>
+  <si>
+    <t>DECTIME     1.219</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 2.226</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 2.490</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -0.3496 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8264</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym9 &lt;- loadReg(fMeHg ~model(9), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(9), data = fMeHg_Rumsey, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym9</t>
+  </si>
+  <si>
+    <t>(Intercept) -8.81118    0.22581 -39.021  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.01433    0.05118  19.817  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.03871    0.02128  -1.819  0.0548</t>
+  </si>
+  <si>
+    <t>DECTIME      0.15871    0.08979   1.767  0.0617</t>
+  </si>
+  <si>
+    <t>DECTIME2     0.29813    0.17667   1.687  0.0741</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.37127    0.24815  -1.496  0.1121</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.52612    0.23270  -2.261  0.0180</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2015</t>
+  </si>
+  <si>
+    <t>R-squared: 94.72 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 152.9 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1966</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3215</t>
+  </si>
+  <si>
+    <t>lnQ2        1.342</t>
+  </si>
+  <si>
+    <t>DECTIME     1.255</t>
+  </si>
+  <si>
+    <t>DECTIME2    2.324</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 2.707</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 2.673</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -0.2371 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8552</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 52; Period of record: 2015-12-19 to 2018-05-11</t>
+  </si>
+  <si>
+    <t>9.19, 8.33, 9.39</t>
+  </si>
+  <si>
+    <t>9.82, 8.56, 16.39</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1222,18 +1735,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1258,9 +1759,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1271,6 +1769,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1295,15 +1805,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1773,11 +2274,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,33 +2291,33 @@
     <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="3.28515625" customWidth="1"/>
     <col min="15" max="15" width="17.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" style="34" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" style="30" customWidth="1"/>
     <col min="17" max="17" width="8.5703125" style="6" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="49"/>
+      <c r="M1" s="48"/>
       <c r="O1" s="21"/>
       <c r="R1" s="21"/>
     </row>
@@ -1905,8 +2406,8 @@
       <c r="O3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="39"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="35"/>
       <c r="R3" s="27"/>
       <c r="S3" s="27"/>
     </row>
@@ -1944,46 +2445,46 @@
       <c r="O4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="40"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="36"/>
     </row>
     <row r="5" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Q5" s="41"/>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="50" t="s">
+      <c r="B7" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="50"/>
+      <c r="M7" s="49"/>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:29" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -2035,7 +2536,7 @@
       <c r="P8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="42" t="s">
+      <c r="Q8" s="38" t="s">
         <v>41</v>
       </c>
       <c r="R8" s="3" t="s">
@@ -2082,24 +2583,24 @@
       <c r="M9" s="6">
         <v>0.69279999999999997</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="41">
         <v>1</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
       <c r="R9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AC9" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
+      <c r="A10" s="39">
         <v>2</v>
       </c>
       <c r="B10" s="6">
@@ -2123,52 +2624,52 @@
       <c r="H10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="43">
         <v>93.22</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="43">
         <v>0.40899999999999997</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="43">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="43">
         <v>5.2329999999999997</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="43">
         <v>0.88939999999999997</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="41">
         <v>2</v>
       </c>
-      <c r="O10" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="P10" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q10" s="35"/>
+      <c r="O10" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q10" s="31"/>
       <c r="R10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AC10" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
+      <c r="A11" s="31">
         <v>3</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="31">
         <v>0</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="32">
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -2180,46 +2681,46 @@
       <c r="G11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="31">
         <v>93</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="31">
         <v>0.16850000000000001</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="31">
         <v>0.1323</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="31">
         <v>16.440000000000001</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="31">
         <v>0.8669</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="41">
         <v>3</v>
       </c>
-      <c r="O11" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q11" s="35"/>
+      <c r="O11" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q11" s="31"/>
       <c r="R11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="AC11" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
+      <c r="A12" s="39">
         <v>4</v>
       </c>
       <c r="B12" s="6">
@@ -2237,37 +2738,37 @@
       <c r="F12" s="6">
         <v>0.76880000000000004</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="43">
         <v>0.5403</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="43">
         <v>92.56</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="43">
         <v>8.3400000000000002E-2</v>
       </c>
-      <c r="K12" s="48">
+      <c r="K12" s="43">
         <v>0.2248</v>
       </c>
-      <c r="L12" s="48">
+      <c r="L12" s="43">
         <v>16.97</v>
       </c>
-      <c r="M12" s="48">
+      <c r="M12" s="43">
         <v>0.78239999999999998</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="41">
         <v>4</v>
       </c>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
       <c r="R12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="AC12" s="9" t="s">
         <v>11</v>
@@ -2286,13 +2787,13 @@
       <c r="D13" s="11">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="45" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="11" t="s">
@@ -2313,36 +2814,36 @@
       <c r="M13" s="11">
         <v>0.91490000000000005</v>
       </c>
-      <c r="N13" s="58">
+      <c r="N13" s="46">
         <v>5</v>
       </c>
-      <c r="O13" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="P13" s="59" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q13" s="59" t="s">
-        <v>275</v>
+      <c r="O13" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="P13" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q13" s="47" t="s">
+        <v>266</v>
       </c>
       <c r="R13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AC13" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+      <c r="A14" s="39">
         <v>6</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="43">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -2354,44 +2855,44 @@
       <c r="F14" s="6">
         <v>0.94079999999999997</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="43">
         <v>0.5575</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="43">
         <v>93.41</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="43">
         <v>0.14710000000000001</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="43">
         <v>0.1153</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="43">
         <v>4.8220000000000001</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="43">
         <v>0.88300000000000001</v>
       </c>
-      <c r="N14" s="46">
+      <c r="N14" s="41">
         <v>6</v>
       </c>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
       <c r="R14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AC14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
+      <c r="A15" s="39">
         <v>7</v>
       </c>
       <c r="B15" s="6">
@@ -2409,50 +2910,50 @@
       <c r="F15" s="6">
         <v>0.26600000000000001</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="43">
         <v>3.78E-2</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="43">
         <v>94.35</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J15" s="43">
         <v>0.14749999999999999</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="43">
         <v>0.187</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="43">
         <v>8.5389999999999997</v>
       </c>
-      <c r="M15" s="48">
+      <c r="M15" s="43">
         <v>0.90680000000000005</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15" s="41">
         <v>7</v>
       </c>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
       <c r="R15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AC15" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
+      <c r="A16" s="39">
         <v>8</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="43">
         <v>0.15210000000000001</v>
       </c>
       <c r="D16" s="6">
@@ -2470,44 +2971,44 @@
       <c r="H16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="43">
         <v>94.71</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="43">
         <v>0.31640000000000001</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="43">
         <v>0.11409999999999999</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="43">
         <v>2.024</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="43">
         <v>0.91149999999999998</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="41">
         <v>8</v>
       </c>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
       <c r="R16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
         <v>9</v>
       </c>
       <c r="B17" s="6">
         <v>0</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="43">
         <v>0.61199999999999999</v>
       </c>
       <c r="D17" s="6">
@@ -2525,71 +3026,73 @@
       <c r="H17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="43">
         <v>95.19</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="43">
         <v>0.1943</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="43">
         <v>0.1711</v>
       </c>
-      <c r="L17" s="48">
+      <c r="L17" s="43">
         <v>3.2829999999999999</v>
       </c>
-      <c r="M17" s="48">
+      <c r="M17" s="43">
         <v>0.92359999999999998</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N17" s="41">
         <v>9</v>
       </c>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
       <c r="R17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AC17" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B19" s="54" t="s">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="50" t="s">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B20" s="50" t="s">
+        <v>444</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="50"/>
+      <c r="M20" s="49"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:30" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -2638,18 +3141,18 @@
       <c r="P21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" s="42" t="s">
+      <c r="Q21" s="38" t="s">
         <v>41</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>1</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="6">
         <v>0</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -2667,38 +3170,50 @@
       <c r="G22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="46">
+      <c r="I22" s="6">
+        <v>92.18</v>
+      </c>
+      <c r="J22" s="6">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.41970000000000002</v>
+      </c>
+      <c r="L22" s="6">
+        <v>15.05</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="N22" s="41">
         <v>1</v>
       </c>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
       <c r="R22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD22" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC22" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="43">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
         <v>2</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="6">
         <v>0</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="19">
+        <v>3.8999999999999998E-3</v>
+      </c>
       <c r="D23" s="10" t="s">
         <v>9</v>
       </c>
@@ -2711,41 +3226,57 @@
       <c r="G23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="46">
+      <c r="I23" s="44">
+        <v>93.34</v>
+      </c>
+      <c r="J23" s="44">
+        <v>0.15340000000000001</v>
+      </c>
+      <c r="K23" s="44">
+        <v>0.43080000000000002</v>
+      </c>
+      <c r="L23" s="44">
+        <v>0.35320000000000001</v>
+      </c>
+      <c r="M23" s="44">
+        <v>0.81230000000000002</v>
+      </c>
+      <c r="N23" s="41">
         <v>2</v>
       </c>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="35"/>
+      <c r="O23" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="P23" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q23" s="31"/>
       <c r="R23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD23" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC23" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
         <v>3</v>
       </c>
-      <c r="B24" s="44">
+      <c r="B24" s="31">
         <v>0</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="36"/>
+      <c r="D24" s="32">
+        <v>0.14849999999999999</v>
+      </c>
       <c r="E24" s="10" t="s">
         <v>9</v>
       </c>
@@ -2755,35 +3286,45 @@
       <c r="G24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="44" t="s">
+      <c r="H24" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="46">
+      <c r="I24" s="31">
+        <v>92.49</v>
+      </c>
+      <c r="J24" s="31">
+        <v>0.29039999999999999</v>
+      </c>
+      <c r="K24" s="31">
+        <v>0.4012</v>
+      </c>
+      <c r="L24" s="31">
+        <v>16.62</v>
+      </c>
+      <c r="M24" s="31">
+        <v>0.7036</v>
+      </c>
+      <c r="N24" s="41">
         <v>3</v>
       </c>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
       <c r="R24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD24" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC24" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="43">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
         <v>4</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="6">
         <v>0</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -2795,219 +3336,324 @@
       <c r="E25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="11" t="s">
+      <c r="F25" s="6">
+        <v>0.2218</v>
+      </c>
+      <c r="G25" s="44">
+        <v>2.8E-3</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="46">
+      <c r="I25" s="44">
+        <v>93.64</v>
+      </c>
+      <c r="J25" s="44">
+        <v>0.15090000000000001</v>
+      </c>
+      <c r="K25" s="44">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="L25" s="44">
+        <v>7.7539999999999996</v>
+      </c>
+      <c r="M25" s="44">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="N25" s="41">
         <v>4</v>
       </c>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
       <c r="R25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD25" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC25" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="43">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>5</v>
       </c>
       <c r="B26" s="11">
         <v>0</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="10" t="s">
+      <c r="C26" s="11">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D26" s="11">
+        <v>2.98E-2</v>
+      </c>
+      <c r="E26" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="45" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
+      <c r="I26" s="11">
+        <v>93.92</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0.36720000000000003</v>
+      </c>
+      <c r="L26" s="11">
+        <v>8.6849999999999997E-2</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0.80500000000000005</v>
+      </c>
       <c r="N26" s="46">
         <v>5</v>
       </c>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
+      <c r="O26" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="P26" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q26" s="47" t="s">
+        <v>266</v>
+      </c>
       <c r="R26" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD26" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC26" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
         <v>6</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="6">
         <v>0</v>
       </c>
-      <c r="C27" s="43"/>
+      <c r="C27" s="44">
+        <v>4.3200000000000002E-2</v>
+      </c>
       <c r="D27" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="11" t="s">
+      <c r="F27" s="6">
+        <v>0.44579999999999997</v>
+      </c>
+      <c r="G27" s="44">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="46">
+      <c r="I27" s="44">
+        <v>94.12</v>
+      </c>
+      <c r="J27" s="44">
+        <v>0.2266</v>
+      </c>
+      <c r="K27" s="44">
+        <v>0.3851</v>
+      </c>
+      <c r="L27" s="44">
+        <v>-0.34949999999999998</v>
+      </c>
+      <c r="M27" s="44">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="N27" s="41">
         <v>6</v>
       </c>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
       <c r="R27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD27" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC27" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
         <v>7</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="6">
         <v>0</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6">
+        <v>0.36880000000000002</v>
+      </c>
       <c r="E28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="11" t="s">
+      <c r="F28" s="6">
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="G28" s="44">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="46">
+      <c r="I28" s="44">
+        <v>93.74</v>
+      </c>
+      <c r="J28" s="44">
+        <v>0.3246</v>
+      </c>
+      <c r="K28" s="44">
+        <v>0.33650000000000002</v>
+      </c>
+      <c r="L28" s="44">
+        <v>8.9179999999999993</v>
+      </c>
+      <c r="M28" s="44">
+        <v>0.80969999999999998</v>
+      </c>
+      <c r="N28" s="41">
         <v>7</v>
       </c>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
       <c r="R28" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD28" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC28" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="43">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
         <v>8</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="6">
         <v>0</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="44">
+        <v>1.72E-2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.1217</v>
+      </c>
       <c r="E29" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="11" t="s">
+      <c r="F29" s="6">
+        <v>0.36870000000000003</v>
+      </c>
+      <c r="G29" s="6">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="46">
+      <c r="I29" s="44">
+        <v>94.38</v>
+      </c>
+      <c r="J29" s="44">
+        <v>0.57630000000000003</v>
+      </c>
+      <c r="K29" s="44">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="L29" s="44">
+        <v>-0.34960000000000002</v>
+      </c>
+      <c r="M29" s="44">
+        <v>0.82640000000000002</v>
+      </c>
+      <c r="N29" s="41">
         <v>8</v>
       </c>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
       <c r="R29" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD29" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC29" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="43">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
         <v>9</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="6">
         <v>0</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="11" t="s">
+      <c r="C30" s="44">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="D30" s="6">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="E30" s="6">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.11210000000000001</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="46">
+      <c r="I30" s="44">
+        <v>94.72</v>
+      </c>
+      <c r="J30" s="44">
+        <v>0.1966</v>
+      </c>
+      <c r="K30" s="44">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="L30" s="44">
+        <v>-0.23710000000000001</v>
+      </c>
+      <c r="M30" s="44">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="N30" s="41">
         <v>9</v>
       </c>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
       <c r="R30" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD30" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC30" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3092,7 +3738,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -3102,7 +3748,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -3112,12 +3758,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -3125,12 +3771,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -3138,27 +3784,27 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -3166,12 +3812,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -3179,7 +3825,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -3187,22 +3833,22 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -3210,47 +3856,47 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -3261,37 +3907,37 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -3304,22 +3950,22 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -3327,7 +3973,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -3337,7 +3983,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -3347,12 +3993,12 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
@@ -3360,12 +4006,12 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -3373,27 +4019,27 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -3401,12 +4047,12 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
@@ -3414,7 +4060,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -3422,27 +4068,27 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -3450,47 +4096,47 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -3498,22 +4144,22 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
@@ -3521,37 +4167,37 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -3564,22 +4210,22 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -3587,7 +4233,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -3597,7 +4243,7 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
@@ -3607,12 +4253,12 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
@@ -3620,12 +4266,12 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -3633,27 +4279,27 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -3661,12 +4307,12 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
@@ -3674,7 +4320,7 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
@@ -3682,27 +4328,27 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
@@ -3710,47 +4356,47 @@
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -3758,22 +4404,22 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -3781,37 +4427,37 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
@@ -3824,22 +4470,22 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -3847,7 +4493,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -3857,7 +4503,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
@@ -3867,12 +4513,12 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
@@ -3880,12 +4526,12 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
@@ -3893,27 +4539,27 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
@@ -3921,12 +4567,12 @@
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
@@ -3934,7 +4580,7 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
@@ -3942,32 +4588,32 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
@@ -3975,47 +4621,47 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
@@ -4023,27 +4669,27 @@
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
@@ -4051,37 +4697,37 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
@@ -4094,22 +4740,22 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
@@ -4117,7 +4763,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -4127,7 +4773,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
@@ -4137,12 +4783,12 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
@@ -4150,12 +4796,12 @@
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
@@ -4163,27 +4809,27 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
@@ -4191,12 +4837,12 @@
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
@@ -4204,7 +4850,7 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="14" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -4212,32 +4858,32 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -4245,47 +4891,47 @@
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="14" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="14" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
@@ -4293,27 +4939,27 @@
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="14" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
@@ -4321,37 +4967,37 @@
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -4364,22 +5010,22 @@
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -4387,7 +5033,7 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -4397,7 +5043,7 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
@@ -4407,12 +5053,12 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
@@ -4420,12 +5066,12 @@
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
@@ -4433,27 +5079,27 @@
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
@@ -4461,12 +5107,12 @@
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
@@ -4474,7 +5120,7 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="14" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
@@ -4482,37 +5128,37 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="14" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="14" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -4520,47 +5166,47 @@
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="14" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="14" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="14" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="14" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="14" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -4568,32 +5214,32 @@
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="14" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
@@ -4601,37 +5247,37 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
@@ -4644,22 +5290,22 @@
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="14" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -4667,7 +5313,7 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="15" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -4677,7 +5323,7 @@
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
@@ -4687,12 +5333,12 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="15" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
@@ -4700,12 +5346,12 @@
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
@@ -4713,27 +5359,27 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
@@ -4741,12 +5387,12 @@
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
@@ -4754,7 +5400,7 @@
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="14" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
@@ -4762,37 +5408,37 @@
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="14" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="14" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="14" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="14" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
@@ -4800,47 +5446,47 @@
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="14" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="14" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="14" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="14" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="14" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="14" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="14" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -4848,32 +5494,32 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="14" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="14" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="14" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
@@ -4881,37 +5527,37 @@
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
@@ -4924,22 +5570,22 @@
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="14" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="14" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="14" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
@@ -4947,7 +5593,7 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="15" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
@@ -4957,7 +5603,7 @@
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
@@ -4967,12 +5613,12 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="15" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
@@ -4980,12 +5626,12 @@
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
@@ -4993,27 +5639,27 @@
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
@@ -5021,12 +5667,12 @@
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
@@ -5034,7 +5680,7 @@
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="14" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
@@ -5042,42 +5688,42 @@
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="14" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="14" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="14" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="14" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="14" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="14" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
@@ -5085,47 +5731,47 @@
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="14" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="14" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="14" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="14" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="14" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="14" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="14" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
@@ -5133,37 +5779,37 @@
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="14" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="14" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="14" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="14" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="14" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
@@ -5171,37 +5817,37 @@
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
@@ -5214,22 +5860,22 @@
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="14" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="14" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="14" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
@@ -5237,7 +5883,7 @@
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="15" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
@@ -5247,7 +5893,7 @@
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
@@ -5257,12 +5903,12 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="15" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
@@ -5270,12 +5916,12 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
@@ -5283,27 +5929,27 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
@@ -5311,12 +5957,12 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
@@ -5324,7 +5970,7 @@
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="14" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
@@ -5332,47 +5978,47 @@
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="14" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="14" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="14" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="14" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="14" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="14" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
@@ -5380,47 +6026,47 @@
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="14" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="14" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="14" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="14" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="14" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="14" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="14" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
@@ -5428,42 +6074,42 @@
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="14" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="14" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="14" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="14" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="14" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
@@ -5471,37 +6117,37 @@
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
@@ -5514,22 +6160,22 @@
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="14" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="14" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="14" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
@@ -5552,1583 +6198,2467 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7110874D-1AB5-4D4C-BDF4-3EDF5D1201E0}">
-  <dimension ref="A1:A524"/>
+  <dimension ref="A1:A528"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31"/>
+      <c r="A1" s="15" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="15" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="14" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="13"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="14" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="A21" s="13"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
+      <c r="A23" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="14" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+      <c r="A25" s="14" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
+      <c r="A26" s="13"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+      <c r="A29" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
+      <c r="A30" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
+      <c r="A31" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
+      <c r="A32" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
+      <c r="A33" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
+      <c r="A34" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
+      <c r="A35" s="14" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
+      <c r="A36" s="13"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
+      <c r="A37" s="13"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
+      <c r="A38" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
+      <c r="A39" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
+      <c r="A40" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
+      <c r="A41" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
+      <c r="A42" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
+      <c r="A43" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
+      <c r="A44" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
+      <c r="A45" s="13"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
+      <c r="A46" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
+      <c r="A47" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
+      <c r="A48" s="14" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
+      <c r="A49" s="14" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
+      <c r="A50" s="14" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
+      <c r="A51" s="13"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
+      <c r="A52" s="15" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="A53" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
+      <c r="A54" s="7" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
+      <c r="A55" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
+      <c r="A56" s="15" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
+      <c r="A57" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
+      <c r="A58" s="13"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
+      <c r="A59" s="14" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
+      <c r="A60" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
+      <c r="A61" s="13"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
+      <c r="A62" s="14" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
+      <c r="A63" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
+      <c r="A64" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
+      <c r="A65" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
+      <c r="A66" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
+      <c r="A67" s="13"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
+      <c r="A68" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
+      <c r="A69" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
+      <c r="A70" s="13"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
+      <c r="A71" s="14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
+      <c r="A72" s="13"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="32"/>
+      <c r="A73" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="32"/>
+      <c r="A74" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
+      <c r="A75" s="14" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
+      <c r="A76" s="14" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
+      <c r="A77" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
+      <c r="A78" s="13"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="32"/>
+      <c r="A79" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
+      <c r="A80" s="14" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
+      <c r="A81" s="14" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
+      <c r="A82" s="14" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
+      <c r="A83" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
+      <c r="A84" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
+      <c r="A85" s="14" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="32"/>
+      <c r="A86" s="14" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
+      <c r="A87" s="14" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
+      <c r="A88" s="13"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
+      <c r="A89" s="14" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
+      <c r="A90" s="14" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
+      <c r="A91" s="14" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
+      <c r="A92" s="14" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
+      <c r="A93" s="13"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
+      <c r="A94" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
+      <c r="A95" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="32"/>
+      <c r="A96" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
+      <c r="A97" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="32"/>
+      <c r="A98" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="32"/>
+      <c r="A99" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="32"/>
+      <c r="A100" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="30"/>
+      <c r="A101" s="13"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="32"/>
+      <c r="A102" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="32"/>
+      <c r="A103" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="32"/>
+      <c r="A104" s="14" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="32"/>
+      <c r="A105" s="14" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="32"/>
+      <c r="A106" s="14" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
+      <c r="A107" s="13"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="31"/>
+      <c r="A108" s="15" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
+      <c r="A109" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
+      <c r="A110" s="7" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
+      <c r="A111" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="31"/>
+      <c r="A112" s="15" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="32"/>
+      <c r="A113" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="30"/>
+      <c r="A114" s="13"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="32"/>
+      <c r="A115" s="14" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="32"/>
+      <c r="A116" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="30"/>
+      <c r="A117" s="13"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="32"/>
+      <c r="A118" s="14" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="32"/>
+      <c r="A119" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="32"/>
+      <c r="A120" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="32"/>
+      <c r="A121" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="32"/>
+      <c r="A122" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="30"/>
+      <c r="A123" s="13"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="32"/>
+      <c r="A124" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="32"/>
+      <c r="A125" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="30"/>
+      <c r="A126" s="13"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="32"/>
+      <c r="A127" s="14" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="30"/>
+      <c r="A128" s="13"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="32"/>
+      <c r="A129" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="32"/>
+      <c r="A130" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="32"/>
+      <c r="A131" s="14" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="32"/>
+      <c r="A132" s="14" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="32"/>
+      <c r="A133" s="14" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="30"/>
+      <c r="A134" s="13"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="32"/>
+      <c r="A135" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="32"/>
+      <c r="A136" s="14" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="32"/>
+      <c r="A137" s="14" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="32"/>
+      <c r="A138" s="14" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="32"/>
+      <c r="A139" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="32"/>
+      <c r="A140" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="32"/>
+      <c r="A141" s="14" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="32"/>
+      <c r="A142" s="14" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="32"/>
+      <c r="A143" s="14" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="30"/>
+      <c r="A144" s="13"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="32"/>
+      <c r="A145" s="14" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="32"/>
+      <c r="A146" s="14" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="32"/>
+      <c r="A147" s="14" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="32"/>
+      <c r="A148" s="14" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="30"/>
+      <c r="A149" s="13"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="32"/>
+      <c r="A150" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="32"/>
+      <c r="A151" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="32"/>
+      <c r="A152" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="32"/>
+      <c r="A153" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="32"/>
+      <c r="A154" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="32"/>
+      <c r="A155" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="32"/>
+      <c r="A156" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="30"/>
+      <c r="A157" s="13"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="32"/>
+      <c r="A158" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="32"/>
+      <c r="A159" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="32"/>
+      <c r="A160" s="14" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="32"/>
+      <c r="A161" s="14" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="32"/>
+      <c r="A162" s="14" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="30"/>
+      <c r="A163" s="13"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="31"/>
+      <c r="A164" s="15" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="8"/>
+      <c r="A165" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="8"/>
+      <c r="A166" s="7" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="8"/>
+      <c r="A167" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="31"/>
+      <c r="A168" s="15" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="32"/>
+      <c r="A169" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="30"/>
+      <c r="A170" s="13"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="32"/>
+      <c r="A171" s="14" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="32"/>
+      <c r="A172" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="30"/>
+      <c r="A173" s="13"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="32"/>
+      <c r="A174" s="14" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="32"/>
+      <c r="A175" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="32"/>
+      <c r="A176" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="32"/>
+      <c r="A177" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="32"/>
+      <c r="A178" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="30"/>
+      <c r="A179" s="13"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="32"/>
+      <c r="A180" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="32"/>
+      <c r="A181" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="30"/>
+      <c r="A182" s="13"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="32"/>
+      <c r="A183" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="30"/>
+      <c r="A184" s="13"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="32"/>
+      <c r="A185" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="32"/>
+      <c r="A186" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="32"/>
+      <c r="A187" s="14" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="32"/>
+      <c r="A188" s="14" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="32"/>
+      <c r="A189" s="14" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="32"/>
+      <c r="A190" s="14" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="30"/>
+      <c r="A191" s="13"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="32"/>
+      <c r="A192" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="32"/>
+      <c r="A193" s="14" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="32"/>
+      <c r="A194" s="14" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="32"/>
+      <c r="A195" s="14" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="32"/>
+      <c r="A196" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="32"/>
+      <c r="A197" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="32"/>
+      <c r="A198" s="14" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="32"/>
+      <c r="A199" s="14" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="32"/>
+      <c r="A200" s="14" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="30"/>
+      <c r="A201" s="13"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="32"/>
+      <c r="A202" s="14" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="32"/>
+      <c r="A203" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="32"/>
+      <c r="A204" s="14" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="32"/>
+      <c r="A205" s="14" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="32"/>
+      <c r="A206" s="14" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="30"/>
+      <c r="A207" s="13"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="32"/>
+      <c r="A208" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="32"/>
+      <c r="A209" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="32"/>
+      <c r="A210" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="32"/>
+      <c r="A211" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="32"/>
+      <c r="A212" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="32"/>
+      <c r="A213" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="32"/>
+      <c r="A214" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="30"/>
+      <c r="A215" s="13"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="32"/>
+      <c r="A216" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="32"/>
+      <c r="A217" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="32"/>
+      <c r="A218" s="14" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="32"/>
+      <c r="A219" s="14" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="32"/>
+      <c r="A220" s="14" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="30"/>
+      <c r="A221" s="13"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="31"/>
+      <c r="A222" s="15" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="8"/>
+      <c r="A223" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="8"/>
+      <c r="A224" s="7" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="8"/>
+      <c r="A225" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="31"/>
+      <c r="A226" s="15" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="32"/>
+      <c r="A227" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="30"/>
+      <c r="A228" s="13"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="32"/>
+      <c r="A229" s="14" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="32"/>
+      <c r="A230" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="30"/>
+      <c r="A231" s="13"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="32"/>
+      <c r="A232" s="14" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="32"/>
+      <c r="A233" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="32"/>
+      <c r="A234" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="32"/>
+      <c r="A235" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="32"/>
+      <c r="A236" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="30"/>
+      <c r="A237" s="13"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="32"/>
+      <c r="A238" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="32"/>
+      <c r="A239" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="30"/>
+      <c r="A240" s="13"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="32"/>
+      <c r="A241" s="14" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="30"/>
+      <c r="A242" s="13"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="32"/>
+      <c r="A243" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="32"/>
+      <c r="A244" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="32"/>
+      <c r="A245" s="14" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="32"/>
+      <c r="A246" s="14" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="32"/>
+      <c r="A247" s="14" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="32"/>
+      <c r="A248" s="14" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="30"/>
+      <c r="A249" s="13"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="32"/>
+      <c r="A250" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="32"/>
+      <c r="A251" s="14" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="32"/>
+      <c r="A252" s="14" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="32"/>
+      <c r="A253" s="14" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="32"/>
+      <c r="A254" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="32"/>
+      <c r="A255" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="32"/>
+      <c r="A256" s="14" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="32"/>
+      <c r="A257" s="14" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="32"/>
+      <c r="A258" s="14" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="30"/>
+      <c r="A259" s="13"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="32"/>
+      <c r="A260" s="14" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="32"/>
+      <c r="A261" s="14" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="32"/>
+      <c r="A262" s="14" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="32"/>
+      <c r="A263" s="14" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="32"/>
+      <c r="A264" s="14" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="30"/>
+      <c r="A265" s="13"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="32"/>
+      <c r="A266" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="32"/>
+      <c r="A267" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="32"/>
+      <c r="A268" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="32"/>
+      <c r="A269" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="32"/>
+      <c r="A270" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="32"/>
+      <c r="A271" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="32"/>
+      <c r="A272" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="30"/>
+      <c r="A273" s="13"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="32"/>
+      <c r="A274" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="32"/>
+      <c r="A275" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="32"/>
+      <c r="A276" s="14" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="32"/>
+      <c r="A277" s="14" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="32"/>
+      <c r="A278" s="14" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="30"/>
+      <c r="A279" s="13"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="31"/>
+      <c r="A280" s="15" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="8"/>
+      <c r="A281" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="8"/>
+      <c r="A282" s="7" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="8"/>
+      <c r="A283" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="31"/>
+      <c r="A284" s="15" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="32"/>
+      <c r="A285" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="30"/>
+      <c r="A286" s="13"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="32"/>
+      <c r="A287" s="14" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="32"/>
+      <c r="A288" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="30"/>
+      <c r="A289" s="13"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="32"/>
+      <c r="A290" s="14" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="32"/>
+      <c r="A291" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="32"/>
+      <c r="A292" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="32"/>
+      <c r="A293" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="32"/>
+      <c r="A294" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="30"/>
+      <c r="A295" s="13"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="32"/>
+      <c r="A296" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="32"/>
+      <c r="A297" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="30"/>
+      <c r="A298" s="13"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="32"/>
+      <c r="A299" s="14" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="30"/>
+      <c r="A300" s="13"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="32"/>
+      <c r="A301" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="32"/>
+      <c r="A302" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="32"/>
+      <c r="A303" s="14" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="32"/>
+      <c r="A304" s="14" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="32"/>
+      <c r="A305" s="14" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="32"/>
+      <c r="A306" s="14" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="32"/>
+      <c r="A307" s="14" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="30"/>
+      <c r="A308" s="13"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="32"/>
+      <c r="A309" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="32"/>
+      <c r="A310" s="14" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="32"/>
+      <c r="A311" s="14" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="32"/>
+      <c r="A312" s="14" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="32"/>
+      <c r="A313" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="32"/>
+      <c r="A314" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="32"/>
+      <c r="A315" s="14" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="32"/>
+      <c r="A316" s="14" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="32"/>
+      <c r="A317" s="14" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="30"/>
+      <c r="A318" s="13"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="32"/>
+      <c r="A319" s="14" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="32"/>
+      <c r="A320" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="32"/>
+      <c r="A321" s="14" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="32"/>
+      <c r="A322" s="14" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="32"/>
+      <c r="A323" s="14" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="32"/>
+      <c r="A324" s="14" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="30"/>
+      <c r="A325" s="13"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="32"/>
+      <c r="A326" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="32"/>
+      <c r="A327" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="32"/>
+      <c r="A328" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="32"/>
+      <c r="A329" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="32"/>
+      <c r="A330" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="32"/>
+      <c r="A331" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="32"/>
+      <c r="A332" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="30"/>
+      <c r="A333" s="13"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="32"/>
+      <c r="A334" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="32"/>
+      <c r="A335" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="32"/>
+      <c r="A336" s="14" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="32"/>
+      <c r="A337" s="14" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="32"/>
+      <c r="A338" s="14" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="30"/>
+      <c r="A339" s="13"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="31"/>
+      <c r="A340" s="15" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="8"/>
+      <c r="A341" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="8"/>
+      <c r="A342" s="7" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="8"/>
+      <c r="A343" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="31"/>
+      <c r="A344" s="15" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="32"/>
+      <c r="A345" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="30"/>
+      <c r="A346" s="13"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="32"/>
+      <c r="A347" s="14" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="32"/>
+      <c r="A348" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="30"/>
+      <c r="A349" s="13"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="32"/>
+      <c r="A350" s="14" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="32"/>
+      <c r="A351" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="32"/>
+      <c r="A352" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="32"/>
+      <c r="A353" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="32"/>
+      <c r="A354" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="30"/>
+      <c r="A355" s="13"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="32"/>
+      <c r="A356" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="32"/>
+      <c r="A357" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="30"/>
+      <c r="A358" s="13"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="32"/>
+      <c r="A359" s="14" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="30"/>
+      <c r="A360" s="13"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="32"/>
+      <c r="A361" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="32"/>
+      <c r="A362" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="32"/>
+      <c r="A363" s="14" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="32"/>
+      <c r="A364" s="14" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="32"/>
+      <c r="A365" s="14" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="32"/>
+      <c r="A366" s="14" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="32"/>
+      <c r="A367" s="14" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="30"/>
+      <c r="A368" s="13"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="32"/>
+      <c r="A369" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="32"/>
+      <c r="A370" s="14" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="32"/>
+      <c r="A371" s="14" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="32"/>
+      <c r="A372" s="14" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="32"/>
+      <c r="A373" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="32"/>
+      <c r="A374" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="32"/>
+      <c r="A375" s="14" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="32"/>
+      <c r="A376" s="14" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="32"/>
+      <c r="A377" s="14" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="30"/>
+      <c r="A378" s="13"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="32"/>
+      <c r="A379" s="14" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="32"/>
+      <c r="A380" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="32"/>
+      <c r="A381" s="14" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="32"/>
+      <c r="A382" s="14" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="32"/>
+      <c r="A383" s="14" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="32"/>
+      <c r="A384" s="14" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="30"/>
+      <c r="A385" s="13"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="32"/>
+      <c r="A386" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="32"/>
+      <c r="A387" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="32"/>
+      <c r="A388" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="32"/>
+      <c r="A389" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="32"/>
+      <c r="A390" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="32"/>
+      <c r="A391" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="32"/>
+      <c r="A392" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="30"/>
+      <c r="A393" s="13"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="32"/>
+      <c r="A394" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="32"/>
+      <c r="A395" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="32"/>
+      <c r="A396" s="14" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="32"/>
+      <c r="A397" s="14" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="32"/>
+      <c r="A398" s="14" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="30"/>
+      <c r="A399" s="13"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="31"/>
+      <c r="A400" s="15" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="8"/>
+      <c r="A401" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="8"/>
+      <c r="A402" s="7" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="8"/>
+      <c r="A403" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="31"/>
+      <c r="A404" s="15" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="32"/>
+      <c r="A405" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="30"/>
+      <c r="A406" s="13"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="32"/>
+      <c r="A407" s="14" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="32"/>
+      <c r="A408" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="30"/>
+      <c r="A409" s="13"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="32"/>
+      <c r="A410" s="14" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="32"/>
+      <c r="A411" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="32"/>
+      <c r="A412" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="32"/>
+      <c r="A413" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="32"/>
+      <c r="A414" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="30"/>
+      <c r="A415" s="13"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="32"/>
+      <c r="A416" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="32"/>
+      <c r="A417" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="30"/>
+      <c r="A418" s="13"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="32"/>
+      <c r="A419" s="14" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="30"/>
+      <c r="A420" s="13"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="32"/>
+      <c r="A421" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="32"/>
+      <c r="A422" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="32"/>
+      <c r="A423" s="14" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="32"/>
+      <c r="A424" s="14" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="32"/>
+      <c r="A425" s="14" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="32"/>
+      <c r="A426" s="14" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="32"/>
+      <c r="A427" s="14" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="32"/>
+      <c r="A428" s="14" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="30"/>
+      <c r="A429" s="13"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="32"/>
+      <c r="A430" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="32"/>
+      <c r="A431" s="14" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="32"/>
+      <c r="A432" s="14" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="32"/>
+      <c r="A433" s="14" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="32"/>
+      <c r="A434" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="32"/>
+      <c r="A435" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="32"/>
+      <c r="A436" s="14" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="32"/>
+      <c r="A437" s="14" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="32"/>
+      <c r="A438" s="14" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="30"/>
+      <c r="A439" s="13"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="32"/>
+      <c r="A440" s="14" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="32"/>
+      <c r="A441" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="32"/>
+      <c r="A442" s="14" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="32"/>
+      <c r="A443" s="14" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="32"/>
+      <c r="A444" s="14" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="32"/>
+      <c r="A445" s="14" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="32"/>
+      <c r="A446" s="14" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="30"/>
+      <c r="A447" s="13"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="32"/>
+      <c r="A448" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="32"/>
+      <c r="A449" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="32"/>
+      <c r="A450" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="32"/>
+      <c r="A451" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="32"/>
+      <c r="A452" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="32"/>
+      <c r="A453" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="32"/>
+      <c r="A454" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="30"/>
+      <c r="A455" s="13"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="32"/>
+      <c r="A456" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="32"/>
+      <c r="A457" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="32"/>
+      <c r="A458" s="14" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="32"/>
+      <c r="A459" s="14" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="32"/>
+      <c r="A460" s="14" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="30"/>
+      <c r="A461" s="13"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="31"/>
+      <c r="A462" s="15" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="8"/>
+      <c r="A463" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="8"/>
+      <c r="A464" s="7" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="8"/>
+      <c r="A465" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="31"/>
+      <c r="A466" s="15" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="32"/>
+      <c r="A467" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="30"/>
+      <c r="A468" s="13"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="32"/>
+      <c r="A469" s="14" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="32"/>
+      <c r="A470" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="30"/>
+      <c r="A471" s="13"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="32"/>
+      <c r="A472" s="14" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="32"/>
+      <c r="A473" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="32"/>
+      <c r="A474" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="32"/>
+      <c r="A475" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="32"/>
+      <c r="A476" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="30"/>
+      <c r="A477" s="13"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="32"/>
+      <c r="A478" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="32"/>
+      <c r="A479" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="30"/>
+      <c r="A480" s="13"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="32"/>
+      <c r="A481" s="14" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="30"/>
+      <c r="A482" s="13"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="32"/>
+      <c r="A483" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="32"/>
+      <c r="A484" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="32"/>
+      <c r="A485" s="14" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="32"/>
+      <c r="A486" s="14" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="32"/>
+      <c r="A487" s="14" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="32"/>
+      <c r="A488" s="14" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="32"/>
+      <c r="A489" s="14" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="32"/>
+      <c r="A490" s="14" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="32"/>
+      <c r="A491" s="14" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="30"/>
+      <c r="A492" s="13"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="32"/>
+      <c r="A493" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="32"/>
+      <c r="A494" s="14" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="32"/>
+      <c r="A495" s="14" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="32"/>
+      <c r="A496" s="14" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="32"/>
+      <c r="A497" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="32"/>
+      <c r="A498" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="32"/>
+      <c r="A499" s="14" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="32"/>
+      <c r="A500" s="14" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="32"/>
+      <c r="A501" s="14" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="30"/>
+      <c r="A502" s="13"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="32"/>
+      <c r="A503" s="14" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="32"/>
+      <c r="A504" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="32"/>
+      <c r="A505" s="14" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="32"/>
+      <c r="A506" s="14" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="32"/>
+      <c r="A507" s="14" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="32"/>
+      <c r="A508" s="14" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="32"/>
+      <c r="A509" s="14" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="32"/>
+      <c r="A510" s="14" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="30"/>
+      <c r="A511" s="13"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="32"/>
+      <c r="A512" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="32"/>
+      <c r="A513" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="32"/>
+      <c r="A514" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="32"/>
+      <c r="A515" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="32"/>
+      <c r="A516" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="32"/>
+      <c r="A517" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="32"/>
+      <c r="A518" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="30"/>
+      <c r="A519" s="13"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="32"/>
+      <c r="A520" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="32"/>
+      <c r="A521" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="32"/>
+      <c r="A522" s="14" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="32"/>
+      <c r="A523" s="14" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="33"/>
+      <c r="A524" s="14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="16"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="16"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="17"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_fMeHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_fMeHg Model Results.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\4_wy2016-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA20BB7-B2AB-4CFC-8E31-4E09037AE913}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354BE21E-C1C6-4A69-AB9F-4CD978227684}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28995" yWindow="16335" windowWidth="15300" windowHeight="11385" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fMeHg wy2016-18 Model Results" sheetId="2" r:id="rId1"/>
-    <sheet name="Outlet" sheetId="5" r:id="rId2"/>
+    <sheet name="Outlet_30ct" sheetId="5" r:id="rId2"/>
     <sheet name="Rumsey" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="446">
   <si>
     <t>Model #</t>
   </si>
@@ -210,1207 +210,1204 @@
     <t>Rumsey fMeHg</t>
   </si>
   <si>
+    <t>In loadReg(fMeHg ~ model(1), data = fMeHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>*** Load Estimation ***</t>
+  </si>
+  <si>
+    <t>Constituent: fMeHg</t>
+  </si>
+  <si>
+    <t>Selected Load Model:</t>
+  </si>
+  <si>
+    <t>--------------------</t>
+  </si>
+  <si>
+    <t>fMeHg ~ model(1)</t>
+  </si>
+  <si>
+    <t>Model coefficients:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Estimate Std. Error z-score p-value</t>
+  </si>
+  <si>
+    <t>AMLE Regression Statistics</t>
+  </si>
+  <si>
+    <t>P-value: &lt;0.0001</t>
+  </si>
+  <si>
+    <t>Prob. Plot Corr. Coeff. (PPCC):</t>
+  </si>
+  <si>
+    <t>Comparison of Observed and Estimated Loads</t>
+  </si>
+  <si>
+    <t>------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Summary Stats: Loads in kg/d</t>
+  </si>
+  <si>
+    <t>---------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Min 25% 50% 75% 90% 95% Max</t>
+  </si>
+  <si>
+    <t>Est   0   0   0   0   0   0   0</t>
+  </si>
+  <si>
+    <t>Obs   0   0   0   0   0   0   0</t>
+  </si>
+  <si>
+    <t>----------------</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(2), data = fMeHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>fMeHg ~ model(2)</t>
+  </si>
+  <si>
+    <t>Variance Inflation Factors:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     VIF</t>
+  </si>
+  <si>
+    <t>lnQ    1</t>
+  </si>
+  <si>
+    <t>lnQ2   1</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(3), data = fMeHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>fMeHg ~ model(3)</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(4), data = fMeHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>fMeHg ~ model(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Estimate Std. Error  z-score p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              VIF</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(5), data = fMeHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>fMeHg ~ model(5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          VIF</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(6), data = fMeHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>fMeHg ~ model(6)</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(7), data = fMeHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>fMeHg ~ model(7)</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(8), data = fMeHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>fMeHg ~ model(8)</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(9), data = fMeHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>fMeHg ~ model(9)</t>
+  </si>
+  <si>
+    <t>lnQ         2.361</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym1 &lt;- loadReg(fMeHg ~model(1), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(1), data = fMeHg_Rumsey, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym1</t>
+  </si>
+  <si>
+    <t>Station: CCSB-Rumsey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Number of Observations: 52</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2017.067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 6.651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Period of record: 2015-12-19 to 2018-05-11</t>
+  </si>
+  <si>
+    <t>(Intercept)  -9.2818    0.07198 -128.96       0</t>
+  </si>
+  <si>
+    <t>lnQ           0.9335    0.03845   24.28       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2684</t>
+  </si>
+  <si>
+    <t>R-squared: 92.18 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 132.5 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0435</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4197</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 15.05 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.7375</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym2 &lt;- loadReg(fMeHg ~model(2), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(2), data = fMeHg_Rumsey, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym2</t>
+  </si>
+  <si>
+    <t>(Intercept) -9.07948    0.09646 -94.126  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.93354    0.03584  26.045  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.05772    0.01977  -2.919  0.0039</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2333</t>
+  </si>
+  <si>
+    <t>R-squared: 93.34 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 140.9 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1534</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4308</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 0.3532 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8123</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym3 &lt;- loadReg(fMeHg ~model(3), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(3), data = fMeHg_Rumsey, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym3</t>
+  </si>
+  <si>
+    <t>(Intercept)  -9.2704    0.07171 -129.275  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.9421    0.03854   24.444  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME       0.1314    0.09273    1.417  0.1485</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2631</t>
+  </si>
+  <si>
+    <t>R-squared: 92.49 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 134.6 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.2904</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4012</t>
+  </si>
+  <si>
+    <t>lnQ     1.025</t>
+  </si>
+  <si>
+    <t>DECTIME 1.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 16.62 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.7036</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym4 &lt;- loadReg(fMeHg ~model(4), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(4), data = fMeHg_Rumsey, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym4</t>
+  </si>
+  <si>
+    <t>(Intercept)  -8.7205    0.23444 -37.197  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.9458    0.03611  26.195  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.2741    0.23186  -1.182  0.2218</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.6535    0.21757  -3.004  0.0028</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2275</t>
+  </si>
+  <si>
+    <t>R-squared: 93.64 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 143.3 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1509</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3466</t>
+  </si>
+  <si>
+    <t>lnQ         1.041</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 2.093</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 2.069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 7.754 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8192</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym5 &lt;- loadReg(fMeHg ~model(5), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(5), data = fMeHg_Rumsey, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym5</t>
+  </si>
+  <si>
+    <t>(Intercept) -9.03761    0.09518 -94.954  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.94546    0.03506  26.970  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.06515    0.01940  -3.358  0.0009</t>
+  </si>
+  <si>
+    <t>DECTIME      0.18299    0.08570   2.135  0.0298</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2175</t>
+  </si>
+  <si>
+    <t>R-squared: 93.92 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 145.6 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3215</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3672</t>
+  </si>
+  <si>
+    <t>lnQ     1.026</t>
+  </si>
+  <si>
+    <t>lnQ2    1.033</t>
+  </si>
+  <si>
+    <t>DECTIME 1.059</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 0.08685 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.805</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym6 &lt;- loadReg(fMeHg ~model(6), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(6), data = fMeHg_Rumsey, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym6</t>
+  </si>
+  <si>
+    <t>(Intercept) -8.73531    0.22791 -38.3271  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.94182    0.03514  26.8010  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.04008    0.02044  -1.9609  0.0432</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.16837    0.23164  -0.7269  0.4458</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.48937    0.22737  -2.1523  0.0270</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2148</t>
+  </si>
+  <si>
+    <t>R-squared: 94.12 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 147.3 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.2266</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3851</t>
+  </si>
+  <si>
+    <t>lnQ         1.044</t>
+  </si>
+  <si>
+    <t>lnQ2        1.161</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 2.213</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 2.394</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -0.3495 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.827</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym7 &lt;- loadReg(fMeHg ~model(7), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(7), data = fMeHg_Rumsey, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym7</t>
+  </si>
+  <si>
+    <t>(Intercept)  -8.7163    0.23514 -37.0679  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.9514    0.03679  25.8586  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME       0.0780    0.09093   0.8578  0.3688</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.3023    0.23480  -1.2874  0.1795</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.6343    0.21933  -2.8919  0.0035</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2287</t>
+  </si>
+  <si>
+    <t>R-squared: 93.74 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 144.1 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3246</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3365</t>
+  </si>
+  <si>
+    <t>lnQ         1.075</t>
+  </si>
+  <si>
+    <t>DECTIME     1.134</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 2.134</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 2.091</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 8.918 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8097</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym8 &lt;- loadReg(fMeHg ~model(8), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(8), data = fMeHg_Rumsey, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym8</t>
+  </si>
+  <si>
+    <t>(Intercept) -8.73109    0.22515 -38.7787  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.95057    0.03522  26.9916  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.04822    0.02093  -2.3035  0.0172</t>
+  </si>
+  <si>
+    <t>DECTIME      0.13288    0.09024   1.4726  0.1217</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.19483    0.22952  -0.8488  0.3687</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.42326    0.22904  -1.8480  0.0536</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2096</t>
+  </si>
+  <si>
+    <t>R-squared: 94.38 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 149.7 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.5763</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.353</t>
+  </si>
+  <si>
+    <t>lnQ2        1.248</t>
+  </si>
+  <si>
+    <t>DECTIME     1.219</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 2.226</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 2.490</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -0.3496 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8264</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym9 &lt;- loadReg(fMeHg ~model(9), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(9), data = fMeHg_Rumsey, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Rumseym9</t>
+  </si>
+  <si>
+    <t>(Intercept) -8.81118    0.22581 -39.021  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.01433    0.05118  19.817  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.03871    0.02128  -1.819  0.0548</t>
+  </si>
+  <si>
+    <t>DECTIME      0.15871    0.08979   1.767  0.0617</t>
+  </si>
+  <si>
+    <t>DECTIME2     0.29813    0.17667   1.687  0.0741</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.37127    0.24815  -1.496  0.1121</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.52612    0.23270  -2.261  0.0180</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2015</t>
+  </si>
+  <si>
+    <t>R-squared: 94.72 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 152.9 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1966</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3215</t>
+  </si>
+  <si>
+    <t>lnQ2        1.342</t>
+  </si>
+  <si>
+    <t>DECTIME     1.255</t>
+  </si>
+  <si>
+    <t>DECTIME2    2.324</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 2.707</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 2.673</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -0.2371 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8552</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 52; Period of record: 2015-12-19 to 2018-05-11</t>
+  </si>
+  <si>
+    <t>9.19, 8.33, 9.39</t>
+  </si>
+  <si>
+    <t>9.82, 8.56, 16.39</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 30; Period of record: 2016-01-20 to 2018-04-08</t>
+  </si>
+  <si>
     <t>&gt; fMeHg_Outflowm1 &lt;- loadReg(fMeHg ~model(1), data = fMeHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
-    <t>In loadReg(fMeHg ~ model(1), data = fMeHg_Outflow, flow = "Flow",  :</t>
-  </si>
-  <si>
     <t>&gt; fMeHg_Outflowm1</t>
   </si>
   <si>
-    <t>*** Load Estimation ***</t>
-  </si>
-  <si>
     <t>Station: CCSB-Yolo</t>
   </si>
   <si>
-    <t>Constituent: fMeHg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Number of Observations: 31</t>
-  </si>
-  <si>
-    <t>Number of Uncensored Observations: 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Center of Decimal Time: 2016.949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  Center of ln(Q): 5.555</t>
+    <t xml:space="preserve">           Number of Observations: 30</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2016.955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 6.989</t>
   </si>
   <si>
     <t xml:space="preserve">                 Period of record: 2016-01-20 to 2018-04-08</t>
   </si>
   <si>
-    <t>Selected Load Model:</t>
-  </si>
-  <si>
-    <t>--------------------</t>
-  </si>
-  <si>
-    <t>fMeHg ~ model(1)</t>
-  </si>
-  <si>
-    <t>Model coefficients:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Estimate Std. Error z-score p-value</t>
-  </si>
-  <si>
-    <t>(Intercept)  -9.8424    0.11357  -86.66       0</t>
-  </si>
-  <si>
-    <t>lnQ           0.8687    0.04794   18.12       0</t>
-  </si>
-  <si>
-    <t>AMLE Regression Statistics</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.3088</t>
-  </si>
-  <si>
-    <t>R-squared: 91.88 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 77.85 on 1 degrees of freedom</t>
-  </si>
-  <si>
-    <t>P-value: &lt;0.0001</t>
-  </si>
-  <si>
-    <t>Prob. Plot Corr. Coeff. (PPCC):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.2468</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.2303</t>
-  </si>
-  <si>
-    <t>Comparison of Observed and Estimated Loads</t>
-  </si>
-  <si>
-    <t>------------------------------------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Summary Stats: Loads in kg/d</t>
-  </si>
-  <si>
-    <t>---------------------------------------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Min 25% 50% 75% 90% 95% Max</t>
-  </si>
-  <si>
-    <t>Est   0   0   0   0   0   0   0</t>
-  </si>
-  <si>
-    <t>Obs   0   0   0   0   0   0   0</t>
-  </si>
-  <si>
-    <t>----------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 24.25 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.6928</t>
+    <t>(Intercept)  -8.5766    0.09795  -87.56       0</t>
+  </si>
+  <si>
+    <t>lnQ           0.8018    0.05962   13.45       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2874</t>
+  </si>
+  <si>
+    <t>R-squared: 86.59 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 60.28 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.6926</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1291</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 11.9 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8444</t>
   </si>
   <si>
     <t>&gt; fMeHg_Outflowm2 &lt;- loadReg(fMeHg ~model(2), data = fMeHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
-    <t>In loadReg(fMeHg ~ model(2), data = fMeHg_Outflow, flow = "Flow",  :</t>
-  </si>
-  <si>
     <t>&gt; fMeHg_Outflowm2</t>
   </si>
   <si>
-    <t>fMeHg ~ model(2)</t>
-  </si>
-  <si>
-    <t>(Intercept) -9.68443    0.12534 -77.268  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          0.86874    0.04461  19.474  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2        -0.02815    0.01201  -2.344  0.0184</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.2674</t>
-  </si>
-  <si>
-    <t>R-squared: 93.22 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 83.41 on 2 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.409</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.056</t>
-  </si>
-  <si>
-    <t>Variance Inflation Factors:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     VIF</t>
-  </si>
-  <si>
-    <t>lnQ    1</t>
-  </si>
-  <si>
-    <t>lnQ2   1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 5.233 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.8894</t>
+    <t>(Intercept) -8.38262    0.13846 -60.541  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.80181    0.05702  14.063  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.07188    0.03778  -1.902  0.0521</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2628</t>
+  </si>
+  <si>
+    <t>R-squared: 88.18 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 64.06 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.2143</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: -0.0531</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 2.196 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8706</t>
   </si>
   <si>
     <t>&gt; fMeHg_Outflowm3 &lt;- loadReg(fMeHg ~model(3), data = fMeHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
-    <t>In loadReg(fMeHg ~ model(3), data = fMeHg_Outflow, flow = "Flow",  :</t>
-  </si>
-  <si>
     <t>&gt; fMeHg_Outflowm3</t>
   </si>
   <si>
-    <t>fMeHg ~ model(3)</t>
-  </si>
-  <si>
-    <t>(Intercept)  -9.9284    0.11484  -86.45  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ           0.8682    0.04532   19.16  0.0000</t>
-  </si>
-  <si>
-    <t>DECTIME      -0.3236    0.15340   -2.11  0.0325</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.276</t>
-  </si>
-  <si>
-    <t>R-squared: 93 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 82.43 on 2 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.1685</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.1323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        VIF</t>
-  </si>
-  <si>
-    <t>lnQ       1</t>
-  </si>
-  <si>
-    <t>DECTIME   1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 16.44 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.8669</t>
+    <t>(Intercept)  -8.6604    0.10217 -84.765  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.8087    0.05679  14.239  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.2983    0.14962  -1.993  0.0424</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2598</t>
+  </si>
+  <si>
+    <t>R-squared: 88.31 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 64.4 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.701</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.0436</t>
+  </si>
+  <si>
+    <t>lnQ     1.004</t>
+  </si>
+  <si>
+    <t>DECTIME 1.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 7.045 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.916</t>
   </si>
   <si>
     <t>&gt; fMeHg_Outflowm4 &lt;- loadReg(fMeHg ~model(4), data = fMeHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
-    <t>In loadReg(fMeHg ~ model(4), data = fMeHg_Outflow, flow = "Flow",  :</t>
-  </si>
-  <si>
     <t>&gt; fMeHg_Outflowm4</t>
   </si>
   <si>
-    <t>fMeHg ~ model(4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Estimate Std. Error  z-score p-value</t>
-  </si>
-  <si>
-    <t>(Intercept)  -9.7638    0.53899 -18.1149  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ           0.8593    0.05607  15.3266  0.0000</t>
-  </si>
-  <si>
-    <t>sin.DECTIME   0.1382    0.50314   0.2746  0.7688</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  -0.2787    0.48608  -0.5733  0.5403</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.3041</t>
-  </si>
-  <si>
-    <t>R-squared: 92.56 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 80.55 on 3 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.0834</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.2248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              VIF</t>
-  </si>
-  <si>
-    <t>lnQ         1.389</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 4.070</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 3.646</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 16.97 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.7824</t>
+    <t>(Intercept) -8.46818     0.5683 -14.9008  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.80928     0.0656  12.3371  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  0.05168     0.4982   0.1037  0.9113</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.26312     0.4777  -0.5508  0.5552</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2935</t>
+  </si>
+  <si>
+    <t>R-squared: 87.28 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 61.87 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1739</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1726</t>
+  </si>
+  <si>
+    <t>lnQ         1.185</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 3.475</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 3.508</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 9.24 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8523</t>
   </si>
   <si>
     <t>&gt; fMeHg_Outflowm5 &lt;- loadReg(fMeHg ~model(5), data = fMeHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
-    <t>In loadReg(fMeHg ~ model(5), data = fMeHg_Outflow, flow = "Flow",  :</t>
-  </si>
-  <si>
     <t>&gt; fMeHg_Outflowm5</t>
   </si>
   <si>
-    <t>fMeHg ~ model(5)</t>
-  </si>
-  <si>
-    <t>(Intercept) -9.77812    0.13218 -73.975  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          0.86833    0.04304  20.175  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2        -0.02383    0.01185  -2.012  0.0374</t>
-  </si>
-  <si>
-    <t>DECTIME     -0.26138    0.14892  -1.755  0.0672</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.2489</t>
-  </si>
-  <si>
-    <t>R-squared: 93.91 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 86.76 on 3 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.6411</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: -0.0012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          VIF</t>
-  </si>
-  <si>
-    <t>lnQ     1.000</t>
-  </si>
-  <si>
-    <t>lnQ2    1.045</t>
-  </si>
-  <si>
-    <t>DECTIME 1.045</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 3.157 percent</t>
+    <t>(Intercept) -8.49976    0.15873 -53.549  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.80701    0.05607  14.393  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.05192    0.03963  -1.310  0.1660</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.22531    0.15782  -1.428  0.1324</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2531</t>
+  </si>
+  <si>
+    <t>R-squared: 89.04 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 66.32 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4006</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: -0.0638</t>
+  </si>
+  <si>
+    <t>lnQ2    1.142</t>
+  </si>
+  <si>
+    <t>DECTIME 1.146</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 1.785 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8933</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outflowm6 &lt;- loadReg(fMeHg ~model(6), data = fMeHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outflowm6</t>
+  </si>
+  <si>
+    <t>(Intercept) -8.18547    0.58613 -13.9652  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.81262    0.06411  12.6757  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.06575    0.04379  -1.5015  0.1075</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.12880    0.50118  -0.2570  0.7784</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.24015    0.46683  -0.5144  0.5741</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.28</t>
+  </si>
+  <si>
+    <t>R-squared: 88.34 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 64.46 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1851</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.008</t>
+  </si>
+  <si>
+    <t>lnQ         1.186</t>
+  </si>
+  <si>
+    <t>lnQ2        1.261</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 3.687</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 3.512</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 2.571 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8752</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outflowm7 &lt;- loadReg(fMeHg ~model(7), data = fMeHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outflowm7</t>
+  </si>
+  <si>
+    <t>(Intercept)  -7.8414    0.55807 -14.051  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.8551    0.06107  14.003  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.4475    0.16391  -2.730  0.0051</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.5512    0.49756  -1.108  0.2305</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.9286    0.49216  -1.887  0.0457</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2352</t>
+  </si>
+  <si>
+    <t>R-squared: 90.2 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 69.7 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.2508</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1364</t>
+  </si>
+  <si>
+    <t>lnQ         1.282</t>
+  </si>
+  <si>
+    <t>DECTIME     1.331</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.327</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 4.648</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 3.367 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9157</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outflowm8 &lt;- loadReg(fMeHg ~model(8), data = fMeHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outflowm8</t>
+  </si>
+  <si>
+    <t>(Intercept) -7.80911    0.57261 -13.6377  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.85236    0.06244  13.6516  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.01942    0.04597  -0.4224  0.6374</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.41098    0.18776  -2.1888  0.0195</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.55527    0.50604  -1.0973  0.2256</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.86746    0.52093  -1.6652  0.0701</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2432</t>
+  </si>
+  <si>
+    <t>R-squared: 90.28 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 69.92 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3611</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.094</t>
+  </si>
+  <si>
+    <t>lnQ         1.296</t>
+  </si>
+  <si>
+    <t>lnQ2        1.600</t>
+  </si>
+  <si>
+    <t>DECTIME     1.689</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.329</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.036</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 2.079 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9084</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outflowm9 &lt;- loadReg(fMeHg ~model(9), data = fMeHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outflowm9</t>
+  </si>
+  <si>
+    <t>(Intercept) -7.47752    0.59866 -12.4904  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.94116    0.08429  11.1657  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.01248    0.04499  -0.2774  0.7516</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.49846    0.19166  -2.6008  0.0054</t>
+  </si>
+  <si>
+    <t>DECTIME2     0.45780    0.30098   1.5210  0.0899</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -1.12802    0.62014  -1.8190  0.0446</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -1.25970    0.56903  -2.2138  0.0161</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2305</t>
+  </si>
+  <si>
+    <t>R-squared: 91.17 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 72.8 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.2001</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1506</t>
+  </si>
+  <si>
+    <t>lnQ         2.491</t>
+  </si>
+  <si>
+    <t>lnQ2        1.616</t>
+  </si>
+  <si>
+    <t>DECTIME     1.856</t>
+  </si>
+  <si>
+    <t>DECTIME2    2.288</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 6.857</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 6.337</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 3.2 percent</t>
   </si>
   <si>
     <t>PLR: 1.032</t>
   </si>
   <si>
-    <t xml:space="preserve">  E: 0.9149</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Outflowm6 &lt;- loadReg(fMeHg ~model(6), data = fMeHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(6), data = fMeHg_Outflow, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Outflowm6</t>
-  </si>
-  <si>
-    <t>fMeHg ~ model(6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Estimate Std. Error   z-score p-value</t>
-  </si>
-  <si>
-    <t>(Intercept) -9.54740    0.53045 -17.99869  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          0.86996    0.05410  16.08062  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2        -0.02439    0.01335  -1.82730  0.0530</t>
-  </si>
-  <si>
-    <t>sin.DECTIME -0.03347    0.49172  -0.06806  0.9408</t>
-  </si>
-  <si>
-    <t>cos.DECTIME -0.25133    0.46654  -0.53870  0.5575</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.2799</t>
-  </si>
-  <si>
-    <t>R-squared: 93.41 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 84.29 on 4 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.1471</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.1153</t>
-  </si>
-  <si>
-    <t>lnQ         1.405</t>
-  </si>
-  <si>
-    <t>lnQ2        1.181</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 4.224</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 3.649</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 4.822 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.883</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Outflowm7 &lt;- loadReg(fMeHg ~model(7), data = fMeHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(7), data = fMeHg_Outflow, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Outflowm7</t>
-  </si>
-  <si>
-    <t>fMeHg ~ model(7)</t>
-  </si>
-  <si>
-    <t>(Intercept)  -9.1403    0.52570 -17.387  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ           0.8966    0.05146  17.423  0.0000</t>
-  </si>
-  <si>
-    <t>DECTIME      -0.4716    0.16435  -2.869  0.0035</t>
-  </si>
-  <si>
-    <t>sin.DECTIME  -0.5161    0.50167  -1.029  0.2660</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  -0.9765    0.49548  -1.971  0.0378</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.2399</t>
-  </si>
-  <si>
-    <t>R-squared: 94.35 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 89.07 on 4 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.1475</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.187</t>
-  </si>
-  <si>
-    <t>lnQ         1.483</t>
-  </si>
-  <si>
-    <t>DECTIME     1.321</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 5.130</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 4.803</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 8.539 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.9068</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Outflowm8 &lt;- loadReg(fMeHg ~model(8), data = fMeHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(8), data = fMeHg_Outflow, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Outflowm8</t>
-  </si>
-  <si>
-    <t>fMeHg ~ model(8)</t>
-  </si>
-  <si>
-    <t>(Intercept) -9.06737    0.52166 -17.382  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          0.89941    0.05082  17.699  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2        -0.01648    0.01260  -1.308  0.1521</t>
-  </si>
-  <si>
-    <t>DECTIME     -0.41613    0.16760  -2.483  0.0090</t>
-  </si>
-  <si>
-    <t>sin.DECTIME -0.55519    0.49586  -1.120  0.2181</t>
-  </si>
-  <si>
-    <t>cos.DECTIME -0.87597    0.49486  -1.770  0.0557</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.2335</t>
-  </si>
-  <si>
-    <t>R-squared: 94.71 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 91.12 on 5 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.3164</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.1141</t>
-  </si>
-  <si>
-    <t>lnQ         1.486</t>
-  </si>
-  <si>
-    <t>lnQ2        1.261</t>
-  </si>
-  <si>
-    <t>DECTIME     1.411</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 5.149</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 4.922</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 2.024 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.9115</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Outflowm9 &lt;- loadReg(fMeHg ~model(9), data = fMeHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(9), data = fMeHg_Outflow, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Outflowm9</t>
-  </si>
-  <si>
-    <t>fMeHg ~ model(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             Estimate Std. Error  z-score p-value</t>
-  </si>
-  <si>
-    <t>(Intercept) -8.847471    0.52720 -16.7819  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          0.958132    0.06234  15.3694  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2        -0.006233    0.01394  -0.4472  0.6120</t>
-  </si>
-  <si>
-    <t>DECTIME     -0.514119    0.17497  -2.9383  0.0020</t>
-  </si>
-  <si>
-    <t>DECTIME2     0.455542    0.29439   1.5474  0.0860</t>
-  </si>
-  <si>
-    <t>sin.DECTIME -1.125015    0.60704  -1.8533  0.0417</t>
-  </si>
-  <si>
-    <t>cos.DECTIME -1.275955    0.54659  -2.3344  0.0118</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.2211</t>
-  </si>
-  <si>
-    <t>R-squared: 95.19 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 94.07 on 6 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.1943</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.1711</t>
-  </si>
-  <si>
-    <t>lnQ         2.361</t>
-  </si>
-  <si>
-    <t>lnQ2        1.629</t>
-  </si>
-  <si>
-    <t>DECTIME     1.624</t>
-  </si>
-  <si>
-    <t>DECTIME2    2.364</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 8.147</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 6.339</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 3.283 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.9236</t>
-  </si>
-  <si>
-    <t>Number of Uncensored Observations: 31; Period of record: 2016-01-20 to 2018-04-08</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>12.80, 13.56, 16.95</t>
-  </si>
-  <si>
-    <t>13.09, 16.17, 30.41</t>
-  </si>
-  <si>
-    <t>13.51, 17.00, 31.39</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Rumseym1 &lt;- loadReg(fMeHg ~model(1), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(1), data = fMeHg_Rumsey, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Rumseym1</t>
-  </si>
-  <si>
-    <t>Station: CCSB-Rumsey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Number of Observations: 52</t>
-  </si>
-  <si>
-    <t>Number of Uncensored Observations: 52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Center of Decimal Time: 2017.067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  Center of ln(Q): 6.651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Period of record: 2015-12-19 to 2018-05-11</t>
-  </si>
-  <si>
-    <t>(Intercept)  -9.2818    0.07198 -128.96       0</t>
-  </si>
-  <si>
-    <t>lnQ           0.9335    0.03845   24.28       0</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.2684</t>
-  </si>
-  <si>
-    <t>R-squared: 92.18 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 132.5 on 1 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.0435</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.4197</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 15.05 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.7375</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Rumseym2 &lt;- loadReg(fMeHg ~model(2), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(2), data = fMeHg_Rumsey, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Rumseym2</t>
-  </si>
-  <si>
-    <t>(Intercept) -9.07948    0.09646 -94.126  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          0.93354    0.03584  26.045  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2        -0.05772    0.01977  -2.919  0.0039</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.2333</t>
-  </si>
-  <si>
-    <t>R-squared: 93.34 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 140.9 on 2 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.1534</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.4308</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 0.3532 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.8123</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Rumseym3 &lt;- loadReg(fMeHg ~model(3), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(3), data = fMeHg_Rumsey, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Rumseym3</t>
-  </si>
-  <si>
-    <t>(Intercept)  -9.2704    0.07171 -129.275  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ           0.9421    0.03854   24.444  0.0000</t>
-  </si>
-  <si>
-    <t>DECTIME       0.1314    0.09273    1.417  0.1485</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.2631</t>
-  </si>
-  <si>
-    <t>R-squared: 92.49 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 134.6 on 2 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.2904</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.4012</t>
-  </si>
-  <si>
-    <t>lnQ     1.025</t>
-  </si>
-  <si>
-    <t>DECTIME 1.025</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 16.62 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.7036</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Rumseym4 &lt;- loadReg(fMeHg ~model(4), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(4), data = fMeHg_Rumsey, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Rumseym4</t>
-  </si>
-  <si>
-    <t>(Intercept)  -8.7205    0.23444 -37.197  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ           0.9458    0.03611  26.195  0.0000</t>
-  </si>
-  <si>
-    <t>sin.DECTIME  -0.2741    0.23186  -1.182  0.2218</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  -0.6535    0.21757  -3.004  0.0028</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.2275</t>
-  </si>
-  <si>
-    <t>R-squared: 93.64 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 143.3 on 3 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.1509</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.3466</t>
-  </si>
-  <si>
-    <t>lnQ         1.041</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 2.093</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 2.069</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 7.754 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.8192</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Rumseym5 &lt;- loadReg(fMeHg ~model(5), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(5), data = fMeHg_Rumsey, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Rumseym5</t>
-  </si>
-  <si>
-    <t>(Intercept) -9.03761    0.09518 -94.954  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          0.94546    0.03506  26.970  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2        -0.06515    0.01940  -3.358  0.0009</t>
-  </si>
-  <si>
-    <t>DECTIME      0.18299    0.08570   2.135  0.0298</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.2175</t>
-  </si>
-  <si>
-    <t>R-squared: 93.92 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 145.6 on 3 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.3215</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.3672</t>
-  </si>
-  <si>
-    <t>lnQ     1.026</t>
-  </si>
-  <si>
-    <t>lnQ2    1.033</t>
-  </si>
-  <si>
-    <t>DECTIME 1.059</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 0.08685 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.805</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Rumseym6 &lt;- loadReg(fMeHg ~model(6), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(6), data = fMeHg_Rumsey, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Rumseym6</t>
-  </si>
-  <si>
-    <t>(Intercept) -8.73531    0.22791 -38.3271  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          0.94182    0.03514  26.8010  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2        -0.04008    0.02044  -1.9609  0.0432</t>
-  </si>
-  <si>
-    <t>sin.DECTIME -0.16837    0.23164  -0.7269  0.4458</t>
-  </si>
-  <si>
-    <t>cos.DECTIME -0.48937    0.22737  -2.1523  0.0270</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.2148</t>
-  </si>
-  <si>
-    <t>R-squared: 94.12 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 147.3 on 4 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.2266</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.3851</t>
-  </si>
-  <si>
-    <t>lnQ         1.044</t>
-  </si>
-  <si>
-    <t>lnQ2        1.161</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 2.213</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 2.394</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: -0.3495 percent</t>
-  </si>
-  <si>
-    <t>PLR: 0.9965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.827</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Rumseym7 &lt;- loadReg(fMeHg ~model(7), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(7), data = fMeHg_Rumsey, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Rumseym7</t>
-  </si>
-  <si>
-    <t>(Intercept)  -8.7163    0.23514 -37.0679  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ           0.9514    0.03679  25.8586  0.0000</t>
-  </si>
-  <si>
-    <t>DECTIME       0.0780    0.09093   0.8578  0.3688</t>
-  </si>
-  <si>
-    <t>sin.DECTIME  -0.3023    0.23480  -1.2874  0.1795</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  -0.6343    0.21933  -2.8919  0.0035</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.2287</t>
-  </si>
-  <si>
-    <t>R-squared: 93.74 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 144.1 on 4 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.3246</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.3365</t>
-  </si>
-  <si>
-    <t>lnQ         1.075</t>
-  </si>
-  <si>
-    <t>DECTIME     1.134</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 2.134</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 2.091</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 8.918 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.8097</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Rumseym8 &lt;- loadReg(fMeHg ~model(8), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(8), data = fMeHg_Rumsey, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Rumseym8</t>
-  </si>
-  <si>
-    <t>(Intercept) -8.73109    0.22515 -38.7787  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          0.95057    0.03522  26.9916  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2        -0.04822    0.02093  -2.3035  0.0172</t>
-  </si>
-  <si>
-    <t>DECTIME      0.13288    0.09024   1.4726  0.1217</t>
-  </si>
-  <si>
-    <t>sin.DECTIME -0.19483    0.22952  -0.8488  0.3687</t>
-  </si>
-  <si>
-    <t>cos.DECTIME -0.42326    0.22904  -1.8480  0.0536</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.2096</t>
-  </si>
-  <si>
-    <t>R-squared: 94.38 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 149.7 on 5 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.5763</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.353</t>
-  </si>
-  <si>
-    <t>lnQ2        1.248</t>
-  </si>
-  <si>
-    <t>DECTIME     1.219</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 2.226</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 2.490</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: -0.3496 percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.8264</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Rumseym9 &lt;- loadReg(fMeHg ~model(9), data = fMeHg_Rumsey, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Rumsey")</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(9), data = fMeHg_Rumsey, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>&gt; fMeHg_Rumseym9</t>
-  </si>
-  <si>
-    <t>(Intercept) -8.81118    0.22581 -39.021  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          1.01433    0.05118  19.817  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2        -0.03871    0.02128  -1.819  0.0548</t>
-  </si>
-  <si>
-    <t>DECTIME      0.15871    0.08979   1.767  0.0617</t>
-  </si>
-  <si>
-    <t>DECTIME2     0.29813    0.17667   1.687  0.0741</t>
-  </si>
-  <si>
-    <t>sin.DECTIME -0.37127    0.24815  -1.496  0.1121</t>
-  </si>
-  <si>
-    <t>cos.DECTIME -0.52612    0.23270  -2.261  0.0180</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.2015</t>
-  </si>
-  <si>
-    <t>R-squared: 94.72 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 152.9 on 6 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.1966</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.3215</t>
-  </si>
-  <si>
-    <t>lnQ2        1.342</t>
-  </si>
-  <si>
-    <t>DECTIME     1.255</t>
-  </si>
-  <si>
-    <t>DECTIME2    2.324</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 2.707</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 2.673</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: -0.2371 percent</t>
-  </si>
-  <si>
-    <t>PLR: 0.9976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.8552</t>
-  </si>
-  <si>
-    <t>Number of Uncensored Observations: 52; Period of record: 2015-12-19 to 2018-05-11</t>
-  </si>
-  <si>
-    <t>9.19, 8.33, 9.39</t>
-  </si>
-  <si>
-    <t>9.82, 8.56, 16.39</t>
+    <t xml:space="preserve">  E: 0.919</t>
+  </si>
+  <si>
+    <t>12.4, 14.9, 31.7</t>
+  </si>
+  <si>
+    <t>12.0, 13.2, 20.6</t>
+  </si>
+  <si>
+    <t>10.6, 14.1, 19.3</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1771,9 +1768,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1781,6 +1775,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1807,11 +1807,84 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2276,9 +2349,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,24 +2373,24 @@
       <c r="A1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="48"/>
+      <c r="M1" s="49"/>
       <c r="O1" s="21"/>
       <c r="R1" s="21"/>
     </row>
@@ -2452,39 +2525,39 @@
       <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="49" t="s">
+      <c r="B7" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="49"/>
+      <c r="M7" s="50"/>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:29" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -2543,7 +2616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -2569,45 +2642,51 @@
         <v>7</v>
       </c>
       <c r="I9" s="6">
-        <v>91.88</v>
+        <v>86.59</v>
       </c>
       <c r="J9" s="6">
-        <v>0.24679999999999999</v>
+        <v>0.69259999999999999</v>
       </c>
       <c r="K9" s="6">
-        <v>0.2303</v>
+        <v>0.12909999999999999</v>
       </c>
       <c r="L9" s="6">
-        <v>24.25</v>
+        <v>11.9</v>
       </c>
       <c r="M9" s="6">
-        <v>0.69279999999999997</v>
-      </c>
-      <c r="N9" s="41">
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="N9" s="6">
         <v>1</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>445</v>
+      </c>
       <c r="R9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC9" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
+    <row r="10" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>2</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
       </c>
-      <c r="C10" s="19">
-        <v>1.84E-2</v>
+      <c r="C10" s="47">
+        <v>5.21E-2</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>9</v>
@@ -2624,103 +2703,107 @@
       <c r="H10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="43">
-        <v>93.22</v>
-      </c>
-      <c r="J10" s="43">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="K10" s="43">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="L10" s="43">
-        <v>5.2329999999999997</v>
-      </c>
-      <c r="M10" s="43">
-        <v>0.88939999999999997</v>
-      </c>
-      <c r="N10" s="41">
+      <c r="I10" s="6">
+        <v>88.18</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="K10" s="6">
+        <v>-5.3100000000000001E-2</v>
+      </c>
+      <c r="L10" s="6">
+        <v>2.1960000000000002</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.87060000000000004</v>
+      </c>
+      <c r="N10" s="6">
         <v>2</v>
       </c>
-      <c r="O10" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="P10" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>90</v>
+      </c>
       <c r="R10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AC10" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+    <row r="11" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="48">
         <v>3</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="48">
         <v>0</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="32">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="57">
+        <v>4.24E-2</v>
+      </c>
+      <c r="E11" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="31">
-        <v>93</v>
-      </c>
-      <c r="J11" s="31">
-        <v>0.16850000000000001</v>
-      </c>
-      <c r="K11" s="31">
-        <v>0.1323</v>
-      </c>
-      <c r="L11" s="31">
-        <v>16.440000000000001</v>
-      </c>
-      <c r="M11" s="31">
-        <v>0.8669</v>
-      </c>
-      <c r="N11" s="41">
+      <c r="I11" s="48">
+        <v>88.31</v>
+      </c>
+      <c r="J11" s="48">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="K11" s="48">
+        <v>4.36E-2</v>
+      </c>
+      <c r="L11" s="48">
+        <v>7.0449999999999999</v>
+      </c>
+      <c r="M11" s="48">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="N11" s="46">
         <v>3</v>
       </c>
-      <c r="O11" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q11" s="31"/>
+      <c r="O11" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="46" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q11" s="46" t="s">
+        <v>90</v>
+      </c>
       <c r="R11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="AC11" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
+    <row r="12" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>4</v>
       </c>
       <c r="B12" s="6">
@@ -2736,115 +2819,109 @@
         <v>9</v>
       </c>
       <c r="F12" s="6">
-        <v>0.76880000000000004</v>
-      </c>
-      <c r="G12" s="43">
-        <v>0.5403</v>
+        <v>0.9113</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.55520000000000003</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="43">
-        <v>92.56</v>
-      </c>
-      <c r="J12" s="43">
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="K12" s="43">
-        <v>0.2248</v>
-      </c>
-      <c r="L12" s="43">
-        <v>16.97</v>
-      </c>
-      <c r="M12" s="43">
-        <v>0.78239999999999998</v>
-      </c>
-      <c r="N12" s="41">
+      <c r="I12" s="6">
+        <v>87.28</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.1739</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.1726</v>
+      </c>
+      <c r="L12" s="6">
+        <v>9.24</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.85229999999999995</v>
+      </c>
+      <c r="N12" s="31">
         <v>4</v>
       </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
       <c r="R12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="AC12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+    <row r="13" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="6">
         <v>0</v>
       </c>
-      <c r="C13" s="11">
-        <v>3.7400000000000003E-2</v>
-      </c>
-      <c r="D13" s="11">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="E13" s="45" t="s">
+      <c r="C13" s="6">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.13239999999999999</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="11">
-        <v>93.91</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0.6411</v>
-      </c>
-      <c r="K13" s="11">
-        <v>-1.1999999999999999E-3</v>
-      </c>
-      <c r="L13" s="11">
-        <v>3.157</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0.91490000000000005</v>
-      </c>
-      <c r="N13" s="46">
+      <c r="I13" s="6">
+        <v>89.04</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.40060000000000001</v>
+      </c>
+      <c r="K13" s="6">
+        <v>-6.3799999999999996E-2</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="N13" s="31">
         <v>5</v>
       </c>
-      <c r="O13" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="P13" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q13" s="47" t="s">
-        <v>266</v>
-      </c>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
       <c r="R13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="AC13" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
+    <row r="14" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>6</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
       </c>
-      <c r="C14" s="43">
-        <v>5.2999999999999999E-2</v>
+      <c r="C14" s="6">
+        <v>0.1075</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>9</v>
@@ -2853,46 +2930,46 @@
         <v>9</v>
       </c>
       <c r="F14" s="6">
-        <v>0.94079999999999997</v>
-      </c>
-      <c r="G14" s="43">
-        <v>0.5575</v>
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.57410000000000005</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="43">
-        <v>93.41</v>
-      </c>
-      <c r="J14" s="43">
-        <v>0.14710000000000001</v>
-      </c>
-      <c r="K14" s="43">
-        <v>0.1153</v>
-      </c>
-      <c r="L14" s="43">
-        <v>4.8220000000000001</v>
-      </c>
-      <c r="M14" s="43">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="N14" s="41">
+      <c r="I14" s="6">
+        <v>88.34</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.18509999999999999</v>
+      </c>
+      <c r="K14" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L14" s="6">
+        <v>2.5710000000000002</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0.87519999999999998</v>
+      </c>
+      <c r="N14" s="31">
         <v>6</v>
       </c>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
       <c r="R14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="AC14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
+    <row r="15" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>7</v>
       </c>
       <c r="B15" s="6">
@@ -2902,194 +2979,194 @@
         <v>9</v>
       </c>
       <c r="D15" s="6">
-        <v>3.5000000000000001E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="6">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="G15" s="43">
-        <v>3.78E-2</v>
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="G15" s="6">
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="43">
-        <v>94.35</v>
-      </c>
-      <c r="J15" s="43">
-        <v>0.14749999999999999</v>
-      </c>
-      <c r="K15" s="43">
-        <v>0.187</v>
-      </c>
-      <c r="L15" s="43">
-        <v>8.5389999999999997</v>
-      </c>
-      <c r="M15" s="43">
-        <v>0.90680000000000005</v>
-      </c>
-      <c r="N15" s="41">
+      <c r="I15" s="6">
+        <v>90.2</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.25080000000000002</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="L15" s="6">
+        <v>3.367</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0.91569999999999996</v>
+      </c>
+      <c r="N15" s="31">
         <v>7</v>
       </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
       <c r="R15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="AC15" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+    <row r="16" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>8</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
       </c>
-      <c r="C16" s="43">
-        <v>0.15210000000000001</v>
+      <c r="C16" s="6">
+        <v>0.63739999999999997</v>
       </c>
       <c r="D16" s="6">
-        <v>8.9999999999999993E-3</v>
+        <v>1.95E-2</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="6">
-        <v>0.21809999999999999</v>
+        <v>0.22559999999999999</v>
       </c>
       <c r="G16" s="6">
-        <v>5.57E-2</v>
+        <v>7.0099999999999996E-2</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="43">
-        <v>94.71</v>
-      </c>
-      <c r="J16" s="43">
-        <v>0.31640000000000001</v>
-      </c>
-      <c r="K16" s="43">
-        <v>0.11409999999999999</v>
-      </c>
-      <c r="L16" s="43">
-        <v>2.024</v>
-      </c>
-      <c r="M16" s="43">
-        <v>0.91149999999999998</v>
-      </c>
-      <c r="N16" s="41">
+      <c r="I16" s="6">
+        <v>90.28</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.36109999999999998</v>
+      </c>
+      <c r="K16" s="6">
+        <v>9.4E-2</v>
+      </c>
+      <c r="L16" s="6">
+        <v>2.0790000000000002</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="N16" s="31">
         <v>8</v>
       </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
       <c r="R16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
+    <row r="17" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>9</v>
       </c>
       <c r="B17" s="6">
         <v>0</v>
       </c>
-      <c r="C17" s="43">
-        <v>0.61199999999999999</v>
+      <c r="C17" s="6">
+        <v>0.75160000000000005</v>
       </c>
       <c r="D17" s="6">
-        <v>2E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="E17" s="6">
-        <v>8.5999999999999993E-2</v>
+        <v>8.9899999999999994E-2</v>
       </c>
       <c r="F17" s="6">
-        <v>4.1700000000000001E-2</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="G17" s="6">
-        <v>1.18E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="43">
-        <v>95.19</v>
-      </c>
-      <c r="J17" s="43">
-        <v>0.1943</v>
-      </c>
-      <c r="K17" s="43">
-        <v>0.1711</v>
-      </c>
-      <c r="L17" s="43">
-        <v>3.2829999999999999</v>
-      </c>
-      <c r="M17" s="43">
-        <v>0.92359999999999998</v>
-      </c>
-      <c r="N17" s="41">
+      <c r="I17" s="6">
+        <v>91.17</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.2001</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="L17" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="N17" s="31">
         <v>9</v>
       </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
       <c r="R17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="AC17" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="s">
-        <v>444</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="49" t="s">
+      <c r="B20" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="49"/>
+      <c r="M20" s="50"/>
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:29" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -3198,7 +3275,7 @@
         <v>10</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>268</v>
+        <v>92</v>
       </c>
       <c r="AC22" s="9" t="s">
         <v>11</v>
@@ -3229,36 +3306,36 @@
       <c r="H23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="43">
         <v>93.34</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="43">
         <v>0.15340000000000001</v>
       </c>
-      <c r="K23" s="44">
+      <c r="K23" s="43">
         <v>0.43080000000000002</v>
       </c>
-      <c r="L23" s="44">
+      <c r="L23" s="43">
         <v>0.35320000000000001</v>
       </c>
-      <c r="M23" s="44">
+      <c r="M23" s="43">
         <v>0.81230000000000002</v>
       </c>
       <c r="N23" s="41">
         <v>2</v>
       </c>
       <c r="O23" s="40" t="s">
-        <v>262</v>
+        <v>89</v>
       </c>
       <c r="P23" s="40" t="s">
-        <v>445</v>
+        <v>269</v>
       </c>
       <c r="Q23" s="31"/>
       <c r="R23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>288</v>
+        <v>112</v>
       </c>
       <c r="AC23" s="9" t="s">
         <v>11</v>
@@ -3314,7 +3391,7 @@
         <v>10</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>303</v>
+        <v>127</v>
       </c>
       <c r="AC24" s="9" t="s">
         <v>11</v>
@@ -3339,25 +3416,25 @@
       <c r="F25" s="6">
         <v>0.2218</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="43">
         <v>2.8E-3</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="43">
         <v>93.64</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="43">
         <v>0.15090000000000001</v>
       </c>
-      <c r="K25" s="44">
+      <c r="K25" s="43">
         <v>0.34660000000000002</v>
       </c>
-      <c r="L25" s="44">
+      <c r="L25" s="43">
         <v>7.7539999999999996</v>
       </c>
-      <c r="M25" s="44">
+      <c r="M25" s="43">
         <v>0.81920000000000004</v>
       </c>
       <c r="N25" s="41">
@@ -3369,7 +3446,7 @@
         <v>10</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>320</v>
+        <v>144</v>
       </c>
       <c r="AC25" s="9" t="s">
         <v>11</v>
@@ -3388,13 +3465,13 @@
       <c r="D26" s="11">
         <v>2.98E-2</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="44" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="11" t="s">
@@ -3415,23 +3492,23 @@
       <c r="M26" s="11">
         <v>0.80500000000000005</v>
       </c>
-      <c r="N26" s="46">
+      <c r="N26" s="45">
         <v>5</v>
       </c>
-      <c r="O26" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="P26" s="47" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q26" s="47" t="s">
-        <v>266</v>
+      <c r="O26" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="P26" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q26" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>339</v>
+        <v>163</v>
       </c>
       <c r="AC26" s="9" t="s">
         <v>11</v>
@@ -3444,7 +3521,7 @@
       <c r="B27" s="6">
         <v>0</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="43">
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -3456,25 +3533,25 @@
       <c r="F27" s="6">
         <v>0.44579999999999997</v>
       </c>
-      <c r="G27" s="44">
+      <c r="G27" s="43">
         <v>2.7E-2</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="43">
         <v>94.12</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="43">
         <v>0.2266</v>
       </c>
-      <c r="K27" s="44">
+      <c r="K27" s="43">
         <v>0.3851</v>
       </c>
-      <c r="L27" s="44">
+      <c r="L27" s="43">
         <v>-0.34949999999999998</v>
       </c>
-      <c r="M27" s="44">
+      <c r="M27" s="43">
         <v>0.82699999999999996</v>
       </c>
       <c r="N27" s="41">
@@ -3486,7 +3563,7 @@
         <v>10</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>358</v>
+        <v>182</v>
       </c>
       <c r="AC27" s="9" t="s">
         <v>11</v>
@@ -3511,25 +3588,25 @@
       <c r="F28" s="6">
         <v>0.17949999999999999</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="43">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="43">
         <v>93.74</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="43">
         <v>0.3246</v>
       </c>
-      <c r="K28" s="44">
+      <c r="K28" s="43">
         <v>0.33650000000000002</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="43">
         <v>8.9179999999999993</v>
       </c>
-      <c r="M28" s="44">
+      <c r="M28" s="43">
         <v>0.80969999999999998</v>
       </c>
       <c r="N28" s="41">
@@ -3541,7 +3618,7 @@
         <v>10</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>379</v>
+        <v>203</v>
       </c>
       <c r="AC28" s="9" t="s">
         <v>11</v>
@@ -3554,7 +3631,7 @@
       <c r="B29" s="6">
         <v>0</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="43">
         <v>1.72E-2</v>
       </c>
       <c r="D29" s="6">
@@ -3572,19 +3649,19 @@
       <c r="H29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="44">
+      <c r="I29" s="43">
         <v>94.38</v>
       </c>
-      <c r="J29" s="44">
+      <c r="J29" s="43">
         <v>0.57630000000000003</v>
       </c>
-      <c r="K29" s="44">
+      <c r="K29" s="43">
         <v>0.35299999999999998</v>
       </c>
-      <c r="L29" s="44">
+      <c r="L29" s="43">
         <v>-0.34960000000000002</v>
       </c>
-      <c r="M29" s="44">
+      <c r="M29" s="43">
         <v>0.82640000000000002</v>
       </c>
       <c r="N29" s="41">
@@ -3596,7 +3673,7 @@
         <v>10</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>400</v>
+        <v>224</v>
       </c>
       <c r="AC29" s="9" t="s">
         <v>11</v>
@@ -3609,7 +3686,7 @@
       <c r="B30" s="6">
         <v>0</v>
       </c>
-      <c r="C30" s="44">
+      <c r="C30" s="43">
         <v>5.4800000000000001E-2</v>
       </c>
       <c r="D30" s="6">
@@ -3627,19 +3704,19 @@
       <c r="H30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="44">
+      <c r="I30" s="43">
         <v>94.72</v>
       </c>
-      <c r="J30" s="44">
+      <c r="J30" s="43">
         <v>0.1966</v>
       </c>
-      <c r="K30" s="44">
+      <c r="K30" s="43">
         <v>0.32150000000000001</v>
       </c>
-      <c r="L30" s="44">
+      <c r="L30" s="43">
         <v>-0.23710000000000001</v>
       </c>
-      <c r="M30" s="44">
+      <c r="M30" s="43">
         <v>0.85519999999999996</v>
       </c>
       <c r="N30" s="41">
@@ -3651,7 +3728,7 @@
         <v>10</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>421</v>
+        <v>245</v>
       </c>
       <c r="AC30" s="9" t="s">
         <v>11</v>
@@ -3671,52 +3748,82 @@
     <mergeCell ref="B19:K19"/>
   </mergeCells>
   <conditionalFormatting sqref="M19 L55:L1048576">
-    <cfRule type="cellIs" dxfId="11" priority="50" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="57" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="58" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="59" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19 K31:K1048576">
-    <cfRule type="cellIs" dxfId="8" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="43" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="44" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:J30 J9:J17">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="lessThan">
+  <conditionalFormatting sqref="J22:J30">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22:M30 M9:M17">
-    <cfRule type="cellIs" dxfId="5" priority="19" operator="between">
+  <conditionalFormatting sqref="M22:M30">
+    <cfRule type="cellIs" dxfId="12" priority="26" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="27" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="28" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:L30 L9:L17">
-    <cfRule type="cellIs" dxfId="2" priority="17" operator="lessThan">
+  <conditionalFormatting sqref="L22:L30">
+    <cfRule type="cellIs" dxfId="9" priority="24" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="25" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23 D24 C26:C27 D26 C29:C30 D28:D30 E30 F25:G25 F27:G30 C10 D11 C13:C14 D13 C16:C17 D15:D17 E17 F12:G12 F14:G17">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="greaterThan">
+  <conditionalFormatting sqref="C23 D24 C26:C27 D26 C29:C30 D28:D30 E30 F25:G25 F27:G30">
+    <cfRule type="cellIs" dxfId="7" priority="23" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J17">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9:M17">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
+      <formula>0.5</formula>
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>-25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10 D11 C13:C14 D13 C16:C17 D15:D17 E17 F12:G12 F14:G17">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3731,14 +3838,14 @@
   <dimension ref="A1:A528"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>46</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -3748,7 +3855,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -3758,12 +3865,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>48</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -3771,12 +3878,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -3784,27 +3891,27 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>52</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>53</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>54</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>56</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -3812,12 +3919,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -3825,7 +3932,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -3833,22 +3940,22 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>62</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>63</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -3856,47 +3963,47 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>66</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>67</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>70</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>71</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>72</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -3907,37 +4014,37 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -3950,22 +4057,22 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>81</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>83</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -3973,7 +4080,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>84</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -3983,7 +4090,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -3993,12 +4100,12 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>86</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
@@ -4006,12 +4113,12 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -4019,27 +4126,27 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>52</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>53</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>54</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>56</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -4047,12 +4154,12 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
@@ -4060,7 +4167,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -4068,27 +4175,27 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>88</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>89</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>90</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -4096,47 +4203,47 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>91</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>92</v>
+        <v>297</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>93</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>94</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>95</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>96</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -4144,22 +4251,22 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
@@ -4167,37 +4274,37 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -4210,22 +4317,22 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>101</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>102</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>103</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -4233,7 +4340,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>104</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -4243,7 +4350,7 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
@@ -4253,12 +4360,12 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>106</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
@@ -4266,12 +4373,12 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -4279,27 +4386,27 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>52</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>53</v>
+        <v>276</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>54</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>56</v>
+        <v>279</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -4307,12 +4414,12 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
@@ -4320,7 +4427,7 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
@@ -4328,27 +4435,27 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>108</v>
+        <v>307</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>109</v>
+        <v>308</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>110</v>
+        <v>309</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
@@ -4356,47 +4463,47 @@
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>111</v>
+        <v>310</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>112</v>
+        <v>311</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>113</v>
+        <v>312</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>114</v>
+        <v>313</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>115</v>
+        <v>314</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>116</v>
+        <v>315</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -4404,22 +4511,22 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>118</v>
+        <v>316</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>119</v>
+        <v>317</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -4427,37 +4534,37 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
@@ -4470,22 +4577,22 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>120</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>121</v>
+        <v>319</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>122</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -4493,7 +4600,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
-        <v>123</v>
+        <v>321</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -4503,7 +4610,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
@@ -4513,12 +4620,12 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
-        <v>125</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
@@ -4526,12 +4633,12 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
@@ -4539,27 +4646,27 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
-        <v>52</v>
+        <v>275</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
-        <v>53</v>
+        <v>276</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
-        <v>54</v>
+        <v>277</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>56</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
@@ -4567,12 +4674,12 @@
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
@@ -4580,7 +4687,7 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
@@ -4588,32 +4695,32 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
-        <v>128</v>
+        <v>323</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>129</v>
+        <v>324</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>130</v>
+        <v>325</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>131</v>
+        <v>326</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
@@ -4621,47 +4728,47 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
-        <v>132</v>
+        <v>327</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
-        <v>133</v>
+        <v>328</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
-        <v>134</v>
+        <v>329</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
-        <v>135</v>
+        <v>330</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
-        <v>136</v>
+        <v>331</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
-        <v>137</v>
+        <v>332</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
@@ -4669,27 +4776,27 @@
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>139</v>
+        <v>333</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
-        <v>140</v>
+        <v>334</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
-        <v>141</v>
+        <v>335</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
@@ -4697,37 +4804,37 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
@@ -4740,22 +4847,22 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
-        <v>142</v>
+        <v>336</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
-        <v>143</v>
+        <v>337</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
-        <v>144</v>
+        <v>338</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
@@ -4763,7 +4870,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
-        <v>145</v>
+        <v>339</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -4773,7 +4880,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
@@ -4783,12 +4890,12 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
-        <v>147</v>
+        <v>340</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
@@ -4796,12 +4903,12 @@
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="14" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
@@ -4809,27 +4916,27 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
-        <v>52</v>
+        <v>275</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="14" t="s">
-        <v>53</v>
+        <v>276</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
-        <v>54</v>
+        <v>277</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
-        <v>56</v>
+        <v>279</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
@@ -4837,12 +4944,12 @@
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
@@ -4850,7 +4957,7 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="14" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -4858,32 +4965,32 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="s">
-        <v>149</v>
+        <v>341</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
-        <v>150</v>
+        <v>342</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
-        <v>151</v>
+        <v>343</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
-        <v>152</v>
+        <v>344</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -4891,47 +4998,47 @@
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="14" t="s">
-        <v>153</v>
+        <v>345</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
-        <v>154</v>
+        <v>346</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
-        <v>155</v>
+        <v>347</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
-        <v>156</v>
+        <v>348</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
-        <v>157</v>
+        <v>349</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
-        <v>158</v>
+        <v>350</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
@@ -4939,27 +5046,27 @@
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="14" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="14" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="s">
-        <v>160</v>
+        <v>316</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
-        <v>161</v>
+        <v>351</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="s">
-        <v>162</v>
+        <v>352</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
@@ -4967,37 +5074,37 @@
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -5010,22 +5117,22 @@
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
-        <v>163</v>
+        <v>353</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
-        <v>164</v>
+        <v>354</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
-        <v>165</v>
+        <v>355</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -5033,7 +5140,7 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
-        <v>166</v>
+        <v>356</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -5043,7 +5150,7 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
@@ -5053,12 +5160,12 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
-        <v>168</v>
+        <v>357</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
@@ -5066,12 +5173,12 @@
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="14" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
@@ -5079,27 +5186,27 @@
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
-        <v>52</v>
+        <v>275</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="s">
-        <v>53</v>
+        <v>276</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="s">
-        <v>54</v>
+        <v>277</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
-        <v>56</v>
+        <v>279</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
@@ -5107,12 +5214,12 @@
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
@@ -5120,7 +5227,7 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="14" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
@@ -5128,37 +5235,37 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="14" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="14" t="s">
-        <v>171</v>
+        <v>358</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="s">
-        <v>172</v>
+        <v>359</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="s">
-        <v>173</v>
+        <v>360</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
-        <v>174</v>
+        <v>361</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="s">
-        <v>175</v>
+        <v>362</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -5166,47 +5273,47 @@
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="14" t="s">
-        <v>176</v>
+        <v>363</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="s">
-        <v>177</v>
+        <v>364</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="14" t="s">
-        <v>178</v>
+        <v>365</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="14" t="s">
-        <v>179</v>
+        <v>366</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="s">
-        <v>180</v>
+        <v>367</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="14" t="s">
-        <v>181</v>
+        <v>368</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -5214,32 +5321,32 @@
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="14" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="14" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="14" t="s">
-        <v>182</v>
+        <v>369</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="s">
-        <v>183</v>
+        <v>370</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
-        <v>184</v>
+        <v>371</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
-        <v>185</v>
+        <v>372</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
@@ -5247,37 +5354,37 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
@@ -5290,22 +5397,22 @@
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="s">
-        <v>186</v>
+        <v>373</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="14" t="s">
-        <v>187</v>
+        <v>374</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="s">
-        <v>188</v>
+        <v>375</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -5313,7 +5420,7 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="15" t="s">
-        <v>189</v>
+        <v>376</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -5323,7 +5430,7 @@
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
@@ -5333,12 +5440,12 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="15" t="s">
-        <v>191</v>
+        <v>377</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
@@ -5346,12 +5453,12 @@
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="14" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
@@ -5359,27 +5466,27 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="s">
-        <v>52</v>
+        <v>275</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="14" t="s">
-        <v>53</v>
+        <v>276</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="14" t="s">
-        <v>54</v>
+        <v>277</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="14" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="s">
-        <v>56</v>
+        <v>279</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
@@ -5387,12 +5494,12 @@
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
@@ -5400,7 +5507,7 @@
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="14" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
@@ -5408,37 +5515,37 @@
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="14" t="s">
-        <v>193</v>
+        <v>378</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="14" t="s">
-        <v>194</v>
+        <v>379</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="14" t="s">
-        <v>195</v>
+        <v>380</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="s">
-        <v>196</v>
+        <v>381</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="14" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
@@ -5446,47 +5553,47 @@
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="14" t="s">
-        <v>198</v>
+        <v>383</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="14" t="s">
-        <v>199</v>
+        <v>384</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="14" t="s">
-        <v>200</v>
+        <v>385</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="14" t="s">
-        <v>179</v>
+        <v>386</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="14" t="s">
-        <v>201</v>
+        <v>387</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="14" t="s">
-        <v>202</v>
+        <v>388</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -5494,32 +5601,32 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="14" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="14" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="14" t="s">
-        <v>203</v>
+        <v>389</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="14" t="s">
-        <v>204</v>
+        <v>390</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="s">
-        <v>205</v>
+        <v>391</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="14" t="s">
-        <v>206</v>
+        <v>392</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
@@ -5527,37 +5634,37 @@
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
@@ -5570,22 +5677,22 @@
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="14" t="s">
-        <v>207</v>
+        <v>393</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="14" t="s">
-        <v>208</v>
+        <v>394</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="14" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
@@ -5593,7 +5700,7 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="15" t="s">
-        <v>210</v>
+        <v>396</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
@@ -5603,7 +5710,7 @@
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
@@ -5613,12 +5720,12 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="15" t="s">
-        <v>212</v>
+        <v>397</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
@@ -5626,12 +5733,12 @@
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="14" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
@@ -5639,27 +5746,27 @@
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="14" t="s">
-        <v>52</v>
+        <v>275</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="14" t="s">
-        <v>53</v>
+        <v>276</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="14" t="s">
-        <v>54</v>
+        <v>277</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="14" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="s">
-        <v>56</v>
+        <v>279</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
@@ -5667,12 +5774,12 @@
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
@@ -5680,7 +5787,7 @@
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="14" t="s">
-        <v>213</v>
+        <v>85</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
@@ -5688,42 +5795,42 @@
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="14" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="14" t="s">
-        <v>214</v>
+        <v>398</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="14" t="s">
-        <v>215</v>
+        <v>399</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="14" t="s">
-        <v>216</v>
+        <v>400</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="14" t="s">
-        <v>217</v>
+        <v>401</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="14" t="s">
-        <v>218</v>
+        <v>402</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="14" t="s">
-        <v>219</v>
+        <v>403</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
@@ -5731,47 +5838,47 @@
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="14" t="s">
-        <v>220</v>
+        <v>404</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="14" t="s">
-        <v>221</v>
+        <v>405</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="14" t="s">
-        <v>222</v>
+        <v>406</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="14" t="s">
-        <v>223</v>
+        <v>407</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="14" t="s">
-        <v>224</v>
+        <v>408</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="14" t="s">
-        <v>225</v>
+        <v>409</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
@@ -5779,37 +5886,37 @@
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="14" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="14" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="14" t="s">
-        <v>226</v>
+        <v>410</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="14" t="s">
-        <v>227</v>
+        <v>411</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="14" t="s">
-        <v>228</v>
+        <v>412</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="14" t="s">
-        <v>229</v>
+        <v>413</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="14" t="s">
-        <v>230</v>
+        <v>414</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
@@ -5817,37 +5924,37 @@
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
@@ -5860,22 +5967,22 @@
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="14" t="s">
-        <v>231</v>
+        <v>415</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="14" t="s">
-        <v>232</v>
+        <v>416</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="14" t="s">
-        <v>233</v>
+        <v>417</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
@@ -5883,7 +5990,7 @@
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="15" t="s">
-        <v>234</v>
+        <v>418</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
@@ -5893,7 +6000,7 @@
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="7" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
@@ -5903,12 +6010,12 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="15" t="s">
-        <v>236</v>
+        <v>419</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
@@ -5916,12 +6023,12 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="14" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
@@ -5929,27 +6036,27 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="14" t="s">
-        <v>52</v>
+        <v>275</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="14" t="s">
-        <v>53</v>
+        <v>276</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="14" t="s">
-        <v>54</v>
+        <v>277</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="14" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="14" t="s">
-        <v>56</v>
+        <v>279</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
@@ -5957,12 +6064,12 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
@@ -5970,7 +6077,7 @@
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="14" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
@@ -5978,47 +6085,47 @@
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="14" t="s">
-        <v>238</v>
+        <v>75</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="14" t="s">
-        <v>239</v>
+        <v>420</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="14" t="s">
-        <v>240</v>
+        <v>421</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="s">
-        <v>241</v>
+        <v>422</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="14" t="s">
-        <v>242</v>
+        <v>423</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="14" t="s">
-        <v>243</v>
+        <v>424</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="s">
-        <v>244</v>
+        <v>425</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="14" t="s">
-        <v>245</v>
+        <v>426</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
@@ -6026,47 +6133,47 @@
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="14" t="s">
-        <v>246</v>
+        <v>427</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="14" t="s">
-        <v>247</v>
+        <v>428</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="14" t="s">
-        <v>248</v>
+        <v>429</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="14" t="s">
-        <v>249</v>
+        <v>430</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="14" t="s">
-        <v>250</v>
+        <v>431</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="14" t="s">
-        <v>251</v>
+        <v>432</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
@@ -6074,42 +6181,42 @@
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="14" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="14" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="14" t="s">
-        <v>252</v>
+        <v>433</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="14" t="s">
-        <v>253</v>
+        <v>434</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="14" t="s">
-        <v>254</v>
+        <v>435</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="14" t="s">
-        <v>255</v>
+        <v>436</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="14" t="s">
-        <v>256</v>
+        <v>437</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="14" t="s">
-        <v>257</v>
+        <v>438</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
@@ -6117,37 +6224,37 @@
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
@@ -6160,22 +6267,22 @@
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="14" t="s">
-        <v>258</v>
+        <v>439</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="14" t="s">
-        <v>259</v>
+        <v>440</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="14" t="s">
-        <v>260</v>
+        <v>441</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
@@ -6208,7 +6315,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>267</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -6218,7 +6325,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>268</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -6228,12 +6335,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>269</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -6241,12 +6348,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>270</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -6254,27 +6361,27 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>272</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>274</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>275</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -6282,12 +6389,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -6295,7 +6402,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -6303,22 +6410,22 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>276</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>277</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -6326,47 +6433,47 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>278</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>279</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>280</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>281</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>282</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>283</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -6377,37 +6484,37 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -6420,22 +6527,22 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>284</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>285</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>286</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -6443,7 +6550,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>287</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -6453,7 +6560,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>288</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -6463,12 +6570,12 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>289</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
@@ -6476,12 +6583,12 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>270</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -6489,27 +6596,27 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>272</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>274</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>275</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -6517,12 +6624,12 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
@@ -6530,7 +6637,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -6538,27 +6645,27 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>290</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>291</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>292</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -6566,47 +6673,47 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>293</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>294</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>295</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>296</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>297</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>298</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -6614,22 +6721,22 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
@@ -6637,37 +6744,37 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -6680,22 +6787,22 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>299</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>300</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>301</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -6703,7 +6810,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>302</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -6713,7 +6820,7 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>303</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
@@ -6723,12 +6830,12 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>304</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
@@ -6736,12 +6843,12 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>270</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -6749,27 +6856,27 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>272</v>
+        <v>96</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>274</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>275</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -6777,12 +6884,12 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
@@ -6790,7 +6897,7 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
@@ -6798,27 +6905,27 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>305</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>306</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>307</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
@@ -6826,47 +6933,47 @@
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>308</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>309</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>310</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>311</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>312</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>313</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -6874,22 +6981,22 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>314</v>
+        <v>138</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>315</v>
+        <v>139</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -6897,37 +7004,37 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
@@ -6940,22 +7047,22 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>316</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>317</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>318</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -6963,7 +7070,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
-        <v>319</v>
+        <v>143</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -6973,7 +7080,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>320</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
@@ -6983,12 +7090,12 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
-        <v>321</v>
+        <v>145</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
@@ -6996,12 +7103,12 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
-        <v>270</v>
+        <v>94</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
@@ -7009,27 +7116,27 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
-        <v>272</v>
+        <v>96</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
-        <v>274</v>
+        <v>98</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>275</v>
+        <v>99</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
@@ -7037,12 +7144,12 @@
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
@@ -7050,7 +7157,7 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
@@ -7058,32 +7165,32 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
-        <v>322</v>
+        <v>146</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>323</v>
+        <v>147</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>324</v>
+        <v>148</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>325</v>
+        <v>149</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
@@ -7091,47 +7198,47 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
-        <v>326</v>
+        <v>150</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
-        <v>327</v>
+        <v>151</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
-        <v>328</v>
+        <v>152</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
-        <v>329</v>
+        <v>153</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
-        <v>330</v>
+        <v>154</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
-        <v>331</v>
+        <v>155</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
@@ -7139,27 +7246,27 @@
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>332</v>
+        <v>156</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
-        <v>333</v>
+        <v>157</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
-        <v>334</v>
+        <v>158</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
@@ -7167,37 +7274,37 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
@@ -7210,22 +7317,22 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
-        <v>335</v>
+        <v>159</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
-        <v>336</v>
+        <v>160</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
-        <v>337</v>
+        <v>161</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
@@ -7233,7 +7340,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
-        <v>338</v>
+        <v>162</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -7243,7 +7350,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>339</v>
+        <v>163</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
@@ -7253,12 +7360,12 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
-        <v>340</v>
+        <v>164</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
@@ -7266,12 +7373,12 @@
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="14" t="s">
-        <v>270</v>
+        <v>94</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
@@ -7279,27 +7386,27 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="14" t="s">
-        <v>272</v>
+        <v>96</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="s">
-        <v>274</v>
+        <v>98</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
-        <v>275</v>
+        <v>99</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
@@ -7307,12 +7414,12 @@
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
@@ -7320,7 +7427,7 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="14" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -7328,32 +7435,32 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="s">
-        <v>341</v>
+        <v>165</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
-        <v>342</v>
+        <v>166</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
-        <v>343</v>
+        <v>167</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
-        <v>344</v>
+        <v>168</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -7361,47 +7468,47 @@
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="14" t="s">
-        <v>345</v>
+        <v>169</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
-        <v>346</v>
+        <v>170</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
-        <v>347</v>
+        <v>171</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
-        <v>348</v>
+        <v>172</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
-        <v>349</v>
+        <v>173</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
-        <v>350</v>
+        <v>174</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
@@ -7409,27 +7516,27 @@
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="14" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="14" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="s">
-        <v>351</v>
+        <v>175</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="s">
-        <v>353</v>
+        <v>177</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
@@ -7437,37 +7544,37 @@
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -7480,22 +7587,22 @@
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
-        <v>354</v>
+        <v>178</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
-        <v>355</v>
+        <v>179</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
-        <v>356</v>
+        <v>180</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -7503,7 +7610,7 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
-        <v>357</v>
+        <v>181</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -7513,7 +7620,7 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>358</v>
+        <v>182</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
@@ -7523,12 +7630,12 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
-        <v>359</v>
+        <v>183</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
@@ -7536,12 +7643,12 @@
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="14" t="s">
-        <v>270</v>
+        <v>94</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
@@ -7549,27 +7656,27 @@
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="s">
-        <v>272</v>
+        <v>96</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
-        <v>274</v>
+        <v>98</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
-        <v>275</v>
+        <v>99</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
@@ -7577,12 +7684,12 @@
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
@@ -7590,7 +7697,7 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="14" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
@@ -7598,37 +7705,37 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="14" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="14" t="s">
-        <v>360</v>
+        <v>184</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="s">
-        <v>361</v>
+        <v>185</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="s">
-        <v>362</v>
+        <v>186</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
-        <v>363</v>
+        <v>187</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="s">
-        <v>364</v>
+        <v>188</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -7636,47 +7743,47 @@
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="14" t="s">
-        <v>365</v>
+        <v>189</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="s">
-        <v>366</v>
+        <v>190</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="14" t="s">
-        <v>367</v>
+        <v>191</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="14" t="s">
-        <v>368</v>
+        <v>192</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="s">
-        <v>369</v>
+        <v>193</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="14" t="s">
-        <v>370</v>
+        <v>194</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -7684,32 +7791,32 @@
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="14" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="14" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="14" t="s">
-        <v>371</v>
+        <v>195</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="s">
-        <v>372</v>
+        <v>196</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
-        <v>373</v>
+        <v>197</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
-        <v>374</v>
+        <v>198</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
@@ -7717,37 +7824,37 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
@@ -7760,22 +7867,22 @@
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="s">
-        <v>375</v>
+        <v>199</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="14" t="s">
-        <v>376</v>
+        <v>200</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="s">
-        <v>377</v>
+        <v>201</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -7783,7 +7890,7 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="15" t="s">
-        <v>378</v>
+        <v>202</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -7793,7 +7900,7 @@
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>379</v>
+        <v>203</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
@@ -7803,12 +7910,12 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="15" t="s">
-        <v>380</v>
+        <v>204</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
@@ -7816,12 +7923,12 @@
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="14" t="s">
-        <v>270</v>
+        <v>94</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
@@ -7829,27 +7936,27 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="14" t="s">
-        <v>272</v>
+        <v>96</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="14" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="14" t="s">
-        <v>274</v>
+        <v>98</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="s">
-        <v>275</v>
+        <v>99</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
@@ -7857,12 +7964,12 @@
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
@@ -7870,7 +7977,7 @@
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="14" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
@@ -7878,37 +7985,37 @@
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="14" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="14" t="s">
-        <v>381</v>
+        <v>205</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="14" t="s">
-        <v>382</v>
+        <v>206</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="14" t="s">
-        <v>383</v>
+        <v>207</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="s">
-        <v>384</v>
+        <v>208</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="14" t="s">
-        <v>385</v>
+        <v>209</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
@@ -7916,47 +8023,47 @@
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="14" t="s">
-        <v>386</v>
+        <v>210</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="14" t="s">
-        <v>387</v>
+        <v>211</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="14" t="s">
-        <v>388</v>
+        <v>212</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="14" t="s">
-        <v>389</v>
+        <v>213</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="14" t="s">
-        <v>390</v>
+        <v>214</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="14" t="s">
-        <v>391</v>
+        <v>215</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -7964,32 +8071,32 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="14" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="14" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="14" t="s">
-        <v>392</v>
+        <v>216</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="14" t="s">
-        <v>393</v>
+        <v>217</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="s">
-        <v>394</v>
+        <v>218</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="14" t="s">
-        <v>395</v>
+        <v>219</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
@@ -7997,37 +8104,37 @@
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
@@ -8040,22 +8147,22 @@
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="14" t="s">
-        <v>396</v>
+        <v>220</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="14" t="s">
-        <v>397</v>
+        <v>221</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="14" t="s">
-        <v>398</v>
+        <v>222</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
@@ -8063,7 +8170,7 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="15" t="s">
-        <v>399</v>
+        <v>223</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
@@ -8073,7 +8180,7 @@
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
-        <v>400</v>
+        <v>224</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
@@ -8083,12 +8190,12 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="15" t="s">
-        <v>401</v>
+        <v>225</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
@@ -8096,12 +8203,12 @@
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="14" t="s">
-        <v>270</v>
+        <v>94</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
@@ -8109,27 +8216,27 @@
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="14" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="14" t="s">
-        <v>272</v>
+        <v>96</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="14" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="14" t="s">
-        <v>274</v>
+        <v>98</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="s">
-        <v>275</v>
+        <v>99</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
@@ -8137,12 +8244,12 @@
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
@@ -8150,7 +8257,7 @@
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="14" t="s">
-        <v>213</v>
+        <v>85</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
@@ -8158,42 +8265,42 @@
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="14" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="14" t="s">
-        <v>402</v>
+        <v>226</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="14" t="s">
-        <v>403</v>
+        <v>227</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="14" t="s">
-        <v>404</v>
+        <v>228</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="14" t="s">
-        <v>405</v>
+        <v>229</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="14" t="s">
-        <v>406</v>
+        <v>230</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="14" t="s">
-        <v>407</v>
+        <v>231</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
@@ -8201,47 +8308,47 @@
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="14" t="s">
-        <v>408</v>
+        <v>232</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="14" t="s">
-        <v>409</v>
+        <v>233</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="14" t="s">
-        <v>410</v>
+        <v>234</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="14" t="s">
-        <v>411</v>
+        <v>235</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="14" t="s">
-        <v>412</v>
+        <v>236</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="14" t="s">
-        <v>413</v>
+        <v>237</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
@@ -8249,37 +8356,37 @@
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="14" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="14" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="14" t="s">
-        <v>392</v>
+        <v>216</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="14" t="s">
-        <v>414</v>
+        <v>238</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="14" t="s">
-        <v>415</v>
+        <v>239</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="14" t="s">
-        <v>416</v>
+        <v>240</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="14" t="s">
-        <v>417</v>
+        <v>241</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
@@ -8287,37 +8394,37 @@
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
@@ -8330,22 +8437,22 @@
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="14" t="s">
-        <v>418</v>
+        <v>242</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="14" t="s">
-        <v>376</v>
+        <v>200</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="14" t="s">
-        <v>419</v>
+        <v>243</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
@@ -8353,7 +8460,7 @@
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="15" t="s">
-        <v>420</v>
+        <v>244</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
@@ -8363,7 +8470,7 @@
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="7" t="s">
-        <v>421</v>
+        <v>245</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
@@ -8373,12 +8480,12 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="15" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
@@ -8386,12 +8493,12 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="14" t="s">
-        <v>270</v>
+        <v>94</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
@@ -8399,27 +8506,27 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="14" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="14" t="s">
-        <v>272</v>
+        <v>96</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="14" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="14" t="s">
-        <v>274</v>
+        <v>98</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="14" t="s">
-        <v>275</v>
+        <v>99</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
@@ -8427,12 +8534,12 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
@@ -8440,7 +8547,7 @@
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="14" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
@@ -8448,47 +8555,47 @@
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="14" t="s">
-        <v>423</v>
+        <v>247</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="14" t="s">
-        <v>424</v>
+        <v>248</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="s">
-        <v>425</v>
+        <v>249</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="14" t="s">
-        <v>426</v>
+        <v>250</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="14" t="s">
-        <v>427</v>
+        <v>251</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="s">
-        <v>428</v>
+        <v>252</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="14" t="s">
-        <v>429</v>
+        <v>253</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
@@ -8496,47 +8603,47 @@
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="14" t="s">
-        <v>430</v>
+        <v>254</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="14" t="s">
-        <v>431</v>
+        <v>255</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="14" t="s">
-        <v>432</v>
+        <v>256</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="14" t="s">
-        <v>433</v>
+        <v>257</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="14" t="s">
-        <v>434</v>
+        <v>258</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="14" t="s">
-        <v>435</v>
+        <v>259</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
@@ -8544,42 +8651,42 @@
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="14" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="14" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="14" t="s">
-        <v>252</v>
+        <v>88</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="14" t="s">
-        <v>436</v>
+        <v>260</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="14" t="s">
-        <v>437</v>
+        <v>261</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="14" t="s">
-        <v>438</v>
+        <v>262</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="14" t="s">
-        <v>439</v>
+        <v>263</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="14" t="s">
-        <v>440</v>
+        <v>264</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
@@ -8587,37 +8694,37 @@
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
@@ -8630,22 +8737,22 @@
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="14" t="s">
-        <v>441</v>
+        <v>265</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="14" t="s">
-        <v>442</v>
+        <v>266</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="14" t="s">
-        <v>443</v>
+        <v>267</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">

--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_fMeHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_fMeHg Model Results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\4_wy2016-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354BE21E-C1C6-4A69-AB9F-4CD978227684}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE3AA04-40F6-44E9-9742-EB85B8E62A37}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fMeHg wy2016-18 Model Results" sheetId="2" r:id="rId1"/>
-    <sheet name="Outlet_30ct" sheetId="5" r:id="rId2"/>
-    <sheet name="Rumsey" sheetId="8" r:id="rId3"/>
+    <sheet name="Combined" sheetId="9" r:id="rId2"/>
+    <sheet name="Outlet_30ct" sheetId="5" r:id="rId3"/>
+    <sheet name="Rumsey" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="632">
   <si>
     <t>Model #</t>
   </si>
@@ -1408,6 +1409,564 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 36; Period of record: 2016-01-20 to 2018-04-08</t>
+  </si>
+  <si>
+    <t>Combined Outflow fMeHg</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(1), data = fMeHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(2), data = fMeHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(3), data = fMeHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(4), data = fMeHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(5), data = fMeHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(6), data = fMeHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(7), data = fMeHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(8), data = fMeHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(9), data = fMeHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm1 &lt;- loadReg(fMeHg ~model(1), data = fMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(1), data = fMeHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Number of Observations: 36</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2016.919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 7.0238</t>
+  </si>
+  <si>
+    <t>(Intercept)  -8.4549    0.07669 -110.24       0</t>
+  </si>
+  <si>
+    <t>lnQ           0.8651    0.04538   19.06       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2097</t>
+  </si>
+  <si>
+    <t>R-squared: 91.45 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 88.51 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.171</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2604</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 8.369 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8719</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm2 &lt;- loadReg(fMeHg ~model(2), data = fMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(2), data = fMeHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm2</t>
+  </si>
+  <si>
+    <t>(Intercept) -8.27094    0.11639 -71.060   0.000</t>
+  </si>
+  <si>
+    <t>lnQ          0.86515    0.04342  19.927   0.000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.06442    0.03164  -2.036   0.039</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.192</t>
+  </si>
+  <si>
+    <t>R-squared: 92.4 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 92.78 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.5074</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1791</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 1.189 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8507</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm3 &lt;- loadReg(fMeHg ~model(3), data = fMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(3), data = fMeHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm3</t>
+  </si>
+  <si>
+    <t>(Intercept)  -8.5038    0.07505 -113.302  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.8783    0.04303   20.414  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.2918    0.12464   -2.341  0.0187</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1853</t>
+  </si>
+  <si>
+    <t>R-squared: 92.66 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 94.05 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3569</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1915</t>
+  </si>
+  <si>
+    <t>lnQ     1.017</t>
+  </si>
+  <si>
+    <t>DECTIME 1.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 4.774 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8976</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm4 &lt;- loadReg(fMeHg ~model(4), data = fMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(4), data = fMeHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm4</t>
+  </si>
+  <si>
+    <t>(Intercept)  -8.4541    0.45980 -18.3863  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.8764    0.04867  18.0056  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.2264    0.40298   0.5619  0.5521</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.2136    0.38892  -0.5491  0.5612</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.195</t>
+  </si>
+  <si>
+    <t>R-squared: 92.52 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 93.32 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0598</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2568</t>
+  </si>
+  <si>
+    <t>lnQ         1.237</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 3.973</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 4.201</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 5.23 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9122</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm5 &lt;- loadReg(fMeHg ~model(5), data = fMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(5), data = fMeHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm5</t>
+  </si>
+  <si>
+    <t>(Intercept) -8.36362    0.12401 -67.442  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.87565    0.04244  20.632  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.04561    0.03238  -1.409  0.1411</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.23245    0.12984  -1.790  0.0638</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1799</t>
+  </si>
+  <si>
+    <t>R-squared: 93.09 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 96.21 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.5991</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.156</t>
+  </si>
+  <si>
+    <t>lnQ     1.019</t>
+  </si>
+  <si>
+    <t>lnQ2    1.118</t>
+  </si>
+  <si>
+    <t>DECTIME 1.137</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 0.6896 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8687</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm6 &lt;- loadReg(fMeHg ~model(6), data = fMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(6), data = fMeHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm6</t>
+  </si>
+  <si>
+    <t>(Intercept) -8.27861    0.47510 -17.4250  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.87565    0.04818  18.1737  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.04451    0.03456  -1.2879  0.1707</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  0.12563    0.40650   0.3090  0.7393</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.19794    0.38517  -0.5139  0.5805</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.191</t>
+  </si>
+  <si>
+    <t>R-squared: 92.9 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 95.2 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1702</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2134</t>
+  </si>
+  <si>
+    <t>lnQ         1.238</t>
+  </si>
+  <si>
+    <t>lnQ2        1.199</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.126</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 4.205</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 1.237 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8833</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm7 &lt;- loadReg(fMeHg ~model(7), data = fMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(7), data = fMeHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm7</t>
+  </si>
+  <si>
+    <t>(Intercept)  -7.8733    0.45583 -17.2724  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.9238    0.04642  19.8985  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.3867    0.12989  -2.9768  0.0026</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.3162    0.40447  -0.7817  0.4019</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.7581    0.39356  -1.9262  0.0437</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1565</t>
+  </si>
+  <si>
+    <t>R-squared: 94.18 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 102.4 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0757</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.218</t>
+  </si>
+  <si>
+    <t>lnQ         1.402</t>
+  </si>
+  <si>
+    <t>DECTIME     1.308</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.985</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.359</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 1.731 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.905</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm8 &lt;- loadReg(fMeHg ~model(8), data = fMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(8), data = fMeHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm8</t>
+  </si>
+  <si>
+    <t>(Intercept) -7.85530    0.46580 -16.8639  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.92143    0.04764  19.3436  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.01122    0.03424  -0.3277  0.7198</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.36922    0.14214  -2.5976  0.0069</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.31712    0.41043  -0.7727  0.3997</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.72959    0.40871  -1.7851  0.0566</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1612</t>
+  </si>
+  <si>
+    <t>R-squared: 94.2 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 102.5 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0962</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2131</t>
+  </si>
+  <si>
+    <t>lnQ         1.434</t>
+  </si>
+  <si>
+    <t>lnQ2        1.395</t>
+  </si>
+  <si>
+    <t>DECTIME     1.521</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.986</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 0.9374 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.896</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm9 &lt;- loadReg(fMeHg ~model(9), data = fMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(9), data = fMeHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm9</t>
+  </si>
+  <si>
+    <t>(Intercept) -7.67602    0.49888 -15.3864  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.96567    0.06492  14.8755  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.01115    0.03423  -0.3258  0.7169</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.41646    0.14973  -2.7815  0.0035</t>
+  </si>
+  <si>
+    <t>DECTIME2     0.23916    0.23847   1.0029  0.2679</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.61775    0.50820  -1.2156  0.1810</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.90377    0.44404  -2.0353  0.0283</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1611</t>
+  </si>
+  <si>
+    <t>R-squared: 94.39 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 103.7 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0682</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2157</t>
+  </si>
+  <si>
+    <t>lnQ         2.664</t>
+  </si>
+  <si>
+    <t>DECTIME2    2.439</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 7.646</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 6.627</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 1.317 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8842</t>
+  </si>
+  <si>
+    <t>10.31, 10.24, 25.09</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +2212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1783,6 +2342,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1807,14 +2375,134 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2347,11 +3035,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AC43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
+      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,24 +3061,24 @@
       <c r="A1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="49"/>
+      <c r="M1" s="52"/>
       <c r="O1" s="21"/>
       <c r="R1" s="21"/>
     </row>
@@ -2525,39 +3213,39 @@
       <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="50" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="50"/>
+      <c r="M7" s="53"/>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:29" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -2750,7 +3438,7 @@
       <c r="C11" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="50">
         <v>4.24E-2</v>
       </c>
       <c r="E11" s="44" t="s">
@@ -3133,41 +3821,64 @@
         <v>11</v>
       </c>
     </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+    </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B19" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="R19" s="1"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="57" t="s">
+        <v>447</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="R19" s="49"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B20" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="50" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="54" t="s">
+        <v>446</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="50"/>
-      <c r="R20" s="1"/>
+      <c r="M20" s="53"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="R20" s="49"/>
     </row>
     <row r="21" spans="1:29" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -3225,7 +3936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>1</v>
       </c>
@@ -3251,45 +3962,47 @@
         <v>7</v>
       </c>
       <c r="I22" s="6">
-        <v>92.18</v>
+        <v>91.45</v>
       </c>
       <c r="J22" s="6">
-        <v>4.3499999999999997E-2</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="K22" s="6">
-        <v>0.41970000000000002</v>
+        <v>0.26040000000000002</v>
       </c>
       <c r="L22" s="6">
-        <v>15.05</v>
+        <v>8.3689999999999998</v>
       </c>
       <c r="M22" s="6">
-        <v>0.73750000000000004</v>
-      </c>
-      <c r="N22" s="41">
+        <v>0.87190000000000001</v>
+      </c>
+      <c r="N22" s="6">
         <v>1</v>
       </c>
-      <c r="O22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>89</v>
+      </c>
       <c r="P22" s="31"/>
       <c r="Q22" s="31"/>
       <c r="R22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC22" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB22" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
+    <row r="23" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="49">
         <v>2</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
       </c>
       <c r="C23" s="19">
-        <v>3.8999999999999998E-3</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>9</v>
@@ -3306,42 +4019,40 @@
       <c r="H23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="43">
-        <v>93.34</v>
-      </c>
-      <c r="J23" s="43">
-        <v>0.15340000000000001</v>
-      </c>
-      <c r="K23" s="43">
-        <v>0.43080000000000002</v>
-      </c>
-      <c r="L23" s="43">
-        <v>0.35320000000000001</v>
-      </c>
-      <c r="M23" s="43">
-        <v>0.81230000000000002</v>
-      </c>
-      <c r="N23" s="41">
+      <c r="I23" s="51">
+        <v>92.4</v>
+      </c>
+      <c r="J23" s="51">
+        <v>0.50739999999999996</v>
+      </c>
+      <c r="K23" s="51">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="L23" s="51">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="M23" s="51">
+        <v>0.85070000000000001</v>
+      </c>
+      <c r="N23" s="49">
         <v>2</v>
       </c>
       <c r="O23" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="P23" s="40" t="s">
-        <v>269</v>
-      </c>
+      <c r="P23" s="40"/>
       <c r="Q23" s="31"/>
       <c r="R23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC23" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB23" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="31">
         <v>3</v>
       </c>
@@ -3352,7 +4063,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="32">
-        <v>0.14849999999999999</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>9</v>
@@ -3363,42 +4074,46 @@
       <c r="G24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I24" s="31">
-        <v>92.49</v>
+        <v>92.66</v>
       </c>
       <c r="J24" s="31">
-        <v>0.29039999999999999</v>
+        <v>0.3569</v>
       </c>
       <c r="K24" s="31">
-        <v>0.4012</v>
+        <v>0.1915</v>
       </c>
       <c r="L24" s="31">
-        <v>16.62</v>
+        <v>4.774</v>
       </c>
       <c r="M24" s="31">
-        <v>0.7036</v>
-      </c>
-      <c r="N24" s="41">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="N24" s="46">
         <v>3</v>
       </c>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
+      <c r="O24" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q24" s="60"/>
       <c r="R24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC24" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB24" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
+    <row r="25" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="49">
         <v>4</v>
       </c>
       <c r="B25" s="6">
@@ -3414,115 +4129,108 @@
         <v>9</v>
       </c>
       <c r="F25" s="6">
-        <v>0.2218</v>
-      </c>
-      <c r="G25" s="43">
-        <v>2.8E-3</v>
+        <v>0.55210000000000004</v>
+      </c>
+      <c r="G25" s="51">
+        <v>0.56120000000000003</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="43">
-        <v>93.64</v>
-      </c>
-      <c r="J25" s="43">
-        <v>0.15090000000000001</v>
-      </c>
-      <c r="K25" s="43">
-        <v>0.34660000000000002</v>
-      </c>
-      <c r="L25" s="43">
-        <v>7.7539999999999996</v>
-      </c>
-      <c r="M25" s="43">
-        <v>0.81920000000000004</v>
-      </c>
-      <c r="N25" s="41">
+      <c r="I25" s="51">
+        <v>92.52</v>
+      </c>
+      <c r="J25" s="51">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="K25" s="51">
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="L25" s="51">
+        <v>5.23</v>
+      </c>
+      <c r="M25" s="51">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="N25" s="31">
         <v>4</v>
       </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
       <c r="R25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC25" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB25" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+    <row r="26" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="49">
         <v>5</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="6">
         <v>0</v>
       </c>
-      <c r="C26" s="11">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="D26" s="11">
-        <v>2.98E-2</v>
-      </c>
-      <c r="E26" s="44" t="s">
+      <c r="C26" s="51">
+        <v>0.1411</v>
+      </c>
+      <c r="D26" s="51">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="11">
-        <v>93.92</v>
-      </c>
-      <c r="J26" s="11">
-        <v>0.32150000000000001</v>
-      </c>
-      <c r="K26" s="11">
-        <v>0.36720000000000003</v>
-      </c>
-      <c r="L26" s="11">
-        <v>8.6849999999999997E-2</v>
-      </c>
-      <c r="M26" s="11">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="N26" s="45">
+      <c r="I26" s="51">
+        <v>93.09</v>
+      </c>
+      <c r="J26" s="51">
+        <v>0.59909999999999997</v>
+      </c>
+      <c r="K26" s="51">
+        <v>0.156</v>
+      </c>
+      <c r="L26" s="51">
+        <v>0.68959999999999999</v>
+      </c>
+      <c r="M26" s="51">
+        <v>0.86870000000000003</v>
+      </c>
+      <c r="N26" s="31">
         <v>5</v>
       </c>
-      <c r="O26" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="P26" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q26" s="46" t="s">
-        <v>90</v>
-      </c>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
       <c r="R26" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC26" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB26" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
+    <row r="27" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="49">
         <v>6</v>
       </c>
       <c r="B27" s="6">
         <v>0</v>
       </c>
-      <c r="C27" s="43">
-        <v>4.3200000000000002E-2</v>
+      <c r="C27" s="51">
+        <v>0.17069999999999999</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>9</v>
@@ -3531,46 +4239,46 @@
         <v>9</v>
       </c>
       <c r="F27" s="6">
-        <v>0.44579999999999997</v>
-      </c>
-      <c r="G27" s="43">
-        <v>2.7E-2</v>
+        <v>0.73929999999999996</v>
+      </c>
+      <c r="G27" s="51">
+        <v>0.58050000000000002</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="43">
-        <v>94.12</v>
-      </c>
-      <c r="J27" s="43">
-        <v>0.2266</v>
-      </c>
-      <c r="K27" s="43">
-        <v>0.3851</v>
-      </c>
-      <c r="L27" s="43">
-        <v>-0.34949999999999998</v>
-      </c>
-      <c r="M27" s="43">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="N27" s="41">
+      <c r="I27" s="51">
+        <v>92.9</v>
+      </c>
+      <c r="J27" s="51">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="K27" s="51">
+        <v>0.21340000000000001</v>
+      </c>
+      <c r="L27" s="51">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="M27" s="51">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="N27" s="31">
         <v>6</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
       <c r="R27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC27" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB27" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
+    <row r="28" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="49">
         <v>7</v>
       </c>
       <c r="B28" s="6">
@@ -3580,229 +4288,884 @@
         <v>9</v>
       </c>
       <c r="D28" s="6">
-        <v>0.36880000000000002</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="6">
-        <v>0.17949999999999999</v>
-      </c>
-      <c r="G28" s="43">
-        <v>3.5000000000000001E-3</v>
+        <v>0.40189999999999998</v>
+      </c>
+      <c r="G28" s="51">
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="43">
-        <v>93.74</v>
-      </c>
-      <c r="J28" s="43">
-        <v>0.3246</v>
-      </c>
-      <c r="K28" s="43">
-        <v>0.33650000000000002</v>
-      </c>
-      <c r="L28" s="43">
-        <v>8.9179999999999993</v>
-      </c>
-      <c r="M28" s="43">
-        <v>0.80969999999999998</v>
-      </c>
-      <c r="N28" s="41">
+      <c r="I28" s="51">
+        <v>94.18</v>
+      </c>
+      <c r="J28" s="51">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="K28" s="51">
+        <v>0.218</v>
+      </c>
+      <c r="L28" s="51">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="M28" s="51">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="N28" s="31">
         <v>7</v>
       </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
       <c r="R28" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC28" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB28" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
+    <row r="29" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="49">
         <v>8</v>
       </c>
       <c r="B29" s="6">
         <v>0</v>
       </c>
-      <c r="C29" s="43">
-        <v>1.72E-2</v>
+      <c r="C29" s="51">
+        <v>0.7198</v>
       </c>
       <c r="D29" s="6">
-        <v>0.1217</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="6">
-        <v>0.36870000000000003</v>
+        <v>0.3997</v>
       </c>
       <c r="G29" s="6">
-        <v>5.3600000000000002E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="43">
-        <v>94.38</v>
-      </c>
-      <c r="J29" s="43">
-        <v>0.57630000000000003</v>
-      </c>
-      <c r="K29" s="43">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="L29" s="43">
-        <v>-0.34960000000000002</v>
-      </c>
-      <c r="M29" s="43">
-        <v>0.82640000000000002</v>
-      </c>
-      <c r="N29" s="41">
+      <c r="I29" s="51">
+        <v>94.2</v>
+      </c>
+      <c r="J29" s="51">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="K29" s="51">
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="L29" s="51">
+        <v>0.93740000000000001</v>
+      </c>
+      <c r="M29" s="51">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="N29" s="31">
         <v>8</v>
       </c>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
       <c r="R29" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC29" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="AB29" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="39">
+    <row r="30" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="49">
         <v>9</v>
       </c>
       <c r="B30" s="6">
         <v>0</v>
       </c>
-      <c r="C30" s="43">
-        <v>5.4800000000000001E-2</v>
+      <c r="C30" s="51">
+        <v>0.71689999999999998</v>
       </c>
       <c r="D30" s="6">
-        <v>6.1699999999999998E-2</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="E30" s="6">
-        <v>7.4099999999999999E-2</v>
+        <v>0.26790000000000003</v>
       </c>
       <c r="F30" s="6">
-        <v>0.11210000000000001</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="G30" s="6">
-        <v>1.7999999999999999E-2</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="43">
-        <v>94.72</v>
-      </c>
-      <c r="J30" s="43">
-        <v>0.1966</v>
-      </c>
-      <c r="K30" s="43">
-        <v>0.32150000000000001</v>
-      </c>
-      <c r="L30" s="43">
-        <v>-0.23710000000000001</v>
-      </c>
-      <c r="M30" s="43">
-        <v>0.85519999999999996</v>
-      </c>
-      <c r="N30" s="41">
+      <c r="I30" s="51">
+        <v>94.39</v>
+      </c>
+      <c r="J30" s="51">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="K30" s="51">
+        <v>0.2157</v>
+      </c>
+      <c r="L30" s="51">
+        <v>1.3169999999999999</v>
+      </c>
+      <c r="M30" s="51">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="N30" s="31">
         <v>9</v>
       </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
       <c r="R30" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T30" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="AB30" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B32" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B33" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="53"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:29" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N34" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q34" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>1</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="6">
+        <v>92.18</v>
+      </c>
+      <c r="J35" s="6">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0.41970000000000002</v>
+      </c>
+      <c r="L35" s="6">
+        <v>15.05</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="N35" s="41">
+        <v>1</v>
+      </c>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC35" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="39">
+        <v>2</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0</v>
+      </c>
+      <c r="C36" s="19">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="43">
+        <v>93.34</v>
+      </c>
+      <c r="J36" s="43">
+        <v>0.15340000000000001</v>
+      </c>
+      <c r="K36" s="43">
+        <v>0.43080000000000002</v>
+      </c>
+      <c r="L36" s="43">
+        <v>0.35320000000000001</v>
+      </c>
+      <c r="M36" s="43">
+        <v>0.81230000000000002</v>
+      </c>
+      <c r="N36" s="41">
+        <v>2</v>
+      </c>
+      <c r="O36" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="P36" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC36" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="31">
+        <v>3</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="32">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="31">
+        <v>92.49</v>
+      </c>
+      <c r="J37" s="31">
+        <v>0.29039999999999999</v>
+      </c>
+      <c r="K37" s="31">
+        <v>0.4012</v>
+      </c>
+      <c r="L37" s="31">
+        <v>16.62</v>
+      </c>
+      <c r="M37" s="31">
+        <v>0.7036</v>
+      </c>
+      <c r="N37" s="41">
+        <v>3</v>
+      </c>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC37" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="39">
+        <v>4</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.2218</v>
+      </c>
+      <c r="G38" s="43">
+        <v>2.8E-3</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="43">
+        <v>93.64</v>
+      </c>
+      <c r="J38" s="43">
+        <v>0.15090000000000001</v>
+      </c>
+      <c r="K38" s="43">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="L38" s="43">
+        <v>7.7539999999999996</v>
+      </c>
+      <c r="M38" s="43">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="N38" s="41">
+        <v>4</v>
+      </c>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="R38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC38" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>5</v>
+      </c>
+      <c r="B39" s="11">
+        <v>0</v>
+      </c>
+      <c r="C39" s="11">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D39" s="11">
+        <v>2.98E-2</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="11">
+        <v>93.92</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0.36720000000000003</v>
+      </c>
+      <c r="L39" s="11">
+        <v>8.6849999999999997E-2</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="N39" s="45">
+        <v>5</v>
+      </c>
+      <c r="O39" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="P39" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q39" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC39" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="39">
+        <v>6</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0</v>
+      </c>
+      <c r="C40" s="43">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.44579999999999997</v>
+      </c>
+      <c r="G40" s="43">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="43">
+        <v>94.12</v>
+      </c>
+      <c r="J40" s="43">
+        <v>0.2266</v>
+      </c>
+      <c r="K40" s="43">
+        <v>0.3851</v>
+      </c>
+      <c r="L40" s="43">
+        <v>-0.34949999999999998</v>
+      </c>
+      <c r="M40" s="43">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="N40" s="41">
+        <v>6</v>
+      </c>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="R40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T40" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC40" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="39">
+        <v>7</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.36880000000000002</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="G41" s="43">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="43">
+        <v>93.74</v>
+      </c>
+      <c r="J41" s="43">
+        <v>0.3246</v>
+      </c>
+      <c r="K41" s="43">
+        <v>0.33650000000000002</v>
+      </c>
+      <c r="L41" s="43">
+        <v>8.9179999999999993</v>
+      </c>
+      <c r="M41" s="43">
+        <v>0.80969999999999998</v>
+      </c>
+      <c r="N41" s="41">
+        <v>7</v>
+      </c>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="R41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC41" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="39">
+        <v>8</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0</v>
+      </c>
+      <c r="C42" s="43">
+        <v>1.72E-2</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.1217</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.36870000000000003</v>
+      </c>
+      <c r="G42" s="6">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="43">
+        <v>94.38</v>
+      </c>
+      <c r="J42" s="43">
+        <v>0.57630000000000003</v>
+      </c>
+      <c r="K42" s="43">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="L42" s="43">
+        <v>-0.34960000000000002</v>
+      </c>
+      <c r="M42" s="43">
+        <v>0.82640000000000002</v>
+      </c>
+      <c r="N42" s="41">
+        <v>8</v>
+      </c>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="R42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T42" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC42" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="39">
+        <v>9</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0</v>
+      </c>
+      <c r="C43" s="43">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="D43" s="6">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="E43" s="6">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0.11210000000000001</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="43">
+        <v>94.72</v>
+      </c>
+      <c r="J43" s="43">
+        <v>0.1966</v>
+      </c>
+      <c r="K43" s="43">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="L43" s="43">
+        <v>-0.23710000000000001</v>
+      </c>
+      <c r="M43" s="43">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="N43" s="41">
+        <v>9</v>
+      </c>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="R43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T43" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="AC30" s="9" t="s">
+      <c r="AC43" s="9" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L32:M32"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="L19:M19"/>
     <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
-  <conditionalFormatting sqref="M19 L55:L1048576">
-    <cfRule type="cellIs" dxfId="18" priority="57" operator="between">
+  <conditionalFormatting sqref="M32 L68:L1048576">
+    <cfRule type="cellIs" dxfId="30" priority="69" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="70" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="71" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19 K31:K1048576">
-    <cfRule type="cellIs" dxfId="15" priority="43" operator="lessThan">
+  <conditionalFormatting sqref="L32 K44:K1048576">
+    <cfRule type="cellIs" dxfId="27" priority="55" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="56" operator="greaterThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:J43">
+    <cfRule type="cellIs" dxfId="25" priority="34" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35:M43">
+    <cfRule type="cellIs" dxfId="24" priority="38" operator="between">
+      <formula>0.5</formula>
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="39" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="40" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:L43">
+    <cfRule type="cellIs" dxfId="21" priority="36" operator="lessThan">
+      <formula>-25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="37" operator="greaterThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36 D37 C39:C40 D39 C42:C43 D41:D43 E43 F38:G38 F40:G43">
+    <cfRule type="cellIs" dxfId="19" priority="35" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J17">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9:M17">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="between">
+      <formula>0.5</formula>
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L17">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+      <formula>-25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="greaterThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10 D11 C13:C14 D13 C16:C17 D15:D17 E17 F12:G12 F14:G17">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="between">
+      <formula>0.5</formula>
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
+      <formula>-25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J30">
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:M30">
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="between">
-      <formula>0.5</formula>
-      <formula>0.8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="27" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="28" operator="greaterThan">
-      <formula>0.8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22:L30">
-    <cfRule type="cellIs" dxfId="9" priority="24" operator="lessThan">
-      <formula>-25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="25" operator="greaterThan">
-      <formula>25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23 D24 C26:C27 D26 C29:C30 D28:D30 E30 F25:G25 F27:G30">
-    <cfRule type="cellIs" dxfId="7" priority="23" operator="greaterThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J17">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9:M17">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
@@ -3814,7 +5177,7 @@
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:L17">
+  <conditionalFormatting sqref="L22:L30">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
@@ -3822,7 +5185,7 @@
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10 D11 C13:C14 D13 C16:C17 D15:D17 E17 F12:G12 F14:G17">
+  <conditionalFormatting sqref="C23 D24 C26:C27 D26 C29:C30 D28:D30 E30 F25:G25 F27:G30">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
@@ -3834,6 +5197,2476 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E835233D-0E0A-4862-8919-A0CE3DDBCC3E}">
+  <dimension ref="A1:A528"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="13"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="13"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="13"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="13"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="13"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="13"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="13"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="13"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="13"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="13"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="14" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="14" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="13"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="15" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="13"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="13"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="13"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="13"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="13"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="14" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="13"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="13"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="14" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="13"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="13"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="14" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="13"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="15" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="13"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="13"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="13"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="13"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="13"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="14" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="13"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="14" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="14" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="14" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="13"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="14" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="14" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="13"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="13"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="14" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="14" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="13"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="15" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="15" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="13"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="13"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="13"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="13"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="13"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="14" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="14" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="13"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="14" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="13"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="14" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="14" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="13"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="13"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="13"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="15" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="15" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="13"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="13"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="13"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="13"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="13"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="14" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="14" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="13"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="14" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="14" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="13"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="14" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="13"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="13"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="13"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="15" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="7" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="15" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="13"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="13"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="13"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="13"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="13"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="14" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="14" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="13"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="14" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="14" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="13"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="14" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="14" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="14" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="13"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="13"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="13"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="15" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="15" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="13"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="13"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="13"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="13"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="13"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="14" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="14" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="14" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="13"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="14" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="14" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="14" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="14" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="14" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="13"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="14" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="14" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="13"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="13"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="14" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="14" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="16"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="16"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="17"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E8CF0D-1596-4A2F-A50C-9BD320018867}">
   <dimension ref="A1:A528"/>
   <sheetViews>
@@ -6303,7 +10136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7110874D-1AB5-4D4C-BDF4-3EDF5D1201E0}">
   <dimension ref="A1:A528"/>
   <sheetViews>
